--- a/Roadshow/Tag 2/_Testdatengenerator_RS2.xlsx
+++ b/Roadshow/Tag 2/_Testdatengenerator_RS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://m2datade-my.sharepoint.com/personal/michael_m2data_de/Documents/Dokumente/GitHub/Willibald-Data/Roadshow/Tag 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{651BA3F1-E220-4D83-AC4D-C50AF32EE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD76204-6B32-4654-B57B-C53BF819F520}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="8_{651BA3F1-E220-4D83-AC4D-C50AF32EE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2A11BA-83F7-467E-A818-E64A182E4475}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{A4E0496F-7324-4B6A-8D8A-BAA11DC38CD8}"/>
+    <workbookView xWindow="2988" yWindow="1236" windowWidth="32220" windowHeight="22884" xr2:uid="{A4E0496F-7324-4B6A-8D8A-BAA11DC38CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="1503">
   <si>
     <t>BestellungID</t>
   </si>
@@ -4089,6 +4089,462 @@
   </si>
   <si>
     <t>09/00</t>
+  </si>
+  <si>
+    <t>04/17</t>
+  </si>
+  <si>
+    <t>06/19</t>
+  </si>
+  <si>
+    <t>05/14</t>
+  </si>
+  <si>
+    <t>10/17</t>
+  </si>
+  <si>
+    <t>11/23</t>
+  </si>
+  <si>
+    <t>01/23</t>
+  </si>
+  <si>
+    <t>02/20</t>
+  </si>
+  <si>
+    <t>04/90</t>
+  </si>
+  <si>
+    <t>09/94</t>
+  </si>
+  <si>
+    <t>06/23</t>
+  </si>
+  <si>
+    <t>09/19</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>10/23</t>
+  </si>
+  <si>
+    <t>02/23</t>
+  </si>
+  <si>
+    <t>12/97</t>
+  </si>
+  <si>
+    <t>12/15</t>
+  </si>
+  <si>
+    <t>09/88</t>
+  </si>
+  <si>
+    <t>03/20</t>
+  </si>
+  <si>
+    <t>06/15</t>
+  </si>
+  <si>
+    <t>05/23</t>
+  </si>
+  <si>
+    <t>12/84</t>
+  </si>
+  <si>
+    <t>02/13</t>
+  </si>
+  <si>
+    <t>12/23</t>
+  </si>
+  <si>
+    <t>07/86</t>
+  </si>
+  <si>
+    <t>06/20</t>
+  </si>
+  <si>
+    <t>07/23</t>
+  </si>
+  <si>
+    <t>01/88</t>
+  </si>
+  <si>
+    <t>09/17</t>
+  </si>
+  <si>
+    <t>02/18</t>
+  </si>
+  <si>
+    <t>01/19</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>09/18</t>
+  </si>
+  <si>
+    <t>07/16</t>
+  </si>
+  <si>
+    <t>11/13</t>
+  </si>
+  <si>
+    <t>03/18</t>
+  </si>
+  <si>
+    <t>10/86</t>
+  </si>
+  <si>
+    <t>09/91</t>
+  </si>
+  <si>
+    <t>01/17</t>
+  </si>
+  <si>
+    <t>02/84</t>
+  </si>
+  <si>
+    <t>08/23</t>
+  </si>
+  <si>
+    <t>09/92</t>
+  </si>
+  <si>
+    <t>06/14</t>
+  </si>
+  <si>
+    <t>08/20</t>
+  </si>
+  <si>
+    <t>03/94</t>
+  </si>
+  <si>
+    <t>05/99</t>
+  </si>
+  <si>
+    <t>09/85</t>
+  </si>
+  <si>
+    <t>06/88</t>
+  </si>
+  <si>
+    <t>10/97</t>
+  </si>
+  <si>
+    <t>05/15</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>02/90</t>
+  </si>
+  <si>
+    <t>05/16</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>04/91</t>
+  </si>
+  <si>
+    <t>08/19</t>
+  </si>
+  <si>
+    <t>06/97</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>01/13</t>
+  </si>
+  <si>
+    <t>04/23</t>
+  </si>
+  <si>
+    <t>12/17</t>
+  </si>
+  <si>
+    <t>11/16</t>
+  </si>
+  <si>
+    <t>07/20</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>06/92</t>
+  </si>
+  <si>
+    <t>12/98</t>
+  </si>
+  <si>
+    <t>10/75</t>
+  </si>
+  <si>
+    <t>01/15</t>
+  </si>
+  <si>
+    <t>05/20</t>
+  </si>
+  <si>
+    <t>09/95</t>
+  </si>
+  <si>
+    <t>04/16</t>
+  </si>
+  <si>
+    <t>06/93</t>
+  </si>
+  <si>
+    <t>04/19</t>
+  </si>
+  <si>
+    <t>03/23</t>
+  </si>
+  <si>
+    <t>08/78</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>01/20</t>
+  </si>
+  <si>
+    <t>05/18</t>
+  </si>
+  <si>
+    <t>09/20</t>
+  </si>
+  <si>
+    <t>07/17</t>
+  </si>
+  <si>
+    <t>06/87</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>08/16</t>
+  </si>
+  <si>
+    <t>03/13</t>
+  </si>
+  <si>
+    <t>04/84</t>
+  </si>
+  <si>
+    <t>10/20</t>
+  </si>
+  <si>
+    <t>07/13</t>
+  </si>
+  <si>
+    <t>09/97</t>
+  </si>
+  <si>
+    <t>08/14</t>
+  </si>
+  <si>
+    <t>03/91</t>
+  </si>
+  <si>
+    <t>09/23</t>
+  </si>
+  <si>
+    <t>01/89</t>
+  </si>
+  <si>
+    <t>04/20</t>
+  </si>
+  <si>
+    <t>09/76</t>
+  </si>
+  <si>
+    <t>11/20</t>
+  </si>
+  <si>
+    <t>06/84</t>
+  </si>
+  <si>
+    <t>01/18</t>
+  </si>
+  <si>
+    <t>04/13</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>04/15</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>07/19</t>
+  </si>
+  <si>
+    <t>04/94</t>
+  </si>
+  <si>
+    <t>12/94</t>
+  </si>
+  <si>
+    <t>06/82</t>
+  </si>
+  <si>
+    <t>05/17</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>10/85</t>
+  </si>
+  <si>
+    <t>06/99</t>
+  </si>
+  <si>
+    <t>02/93</t>
+  </si>
+  <si>
+    <t>09/13</t>
+  </si>
+  <si>
+    <t>10/90</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>07/15</t>
+  </si>
+  <si>
+    <t>08/17</t>
+  </si>
+  <si>
+    <t>10/96</t>
+  </si>
+  <si>
+    <t>05/13</t>
+  </si>
+  <si>
+    <t>10/92</t>
+  </si>
+  <si>
+    <t>12/91</t>
+  </si>
+  <si>
+    <t>04/99</t>
+  </si>
+  <si>
+    <t>06/96</t>
+  </si>
+  <si>
+    <t>09/96</t>
+  </si>
+  <si>
+    <t>06/17</t>
+  </si>
+  <si>
+    <t>02/15</t>
+  </si>
+  <si>
+    <t>07/93</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>12/92</t>
+  </si>
+  <si>
+    <t>11/95</t>
+  </si>
+  <si>
+    <t>09/93</t>
+  </si>
+  <si>
+    <t>12/99</t>
+  </si>
+  <si>
+    <t>08/97</t>
+  </si>
+  <si>
+    <t>04/18</t>
+  </si>
+  <si>
+    <t>08/90</t>
+  </si>
+  <si>
+    <t>04/93</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>01/21</t>
+  </si>
+  <si>
+    <t>02/19</t>
+  </si>
+  <si>
+    <t>05/92</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>09/89</t>
+  </si>
+  <si>
+    <t>03/15</t>
+  </si>
+  <si>
+    <t>06/91</t>
+  </si>
+  <si>
+    <t>02/98</t>
+  </si>
+  <si>
+    <t>05/87</t>
+  </si>
+  <si>
+    <t>02/97</t>
+  </si>
+  <si>
+    <t>01/96</t>
+  </si>
+  <si>
+    <t>10/18</t>
+  </si>
+  <si>
+    <t>02/16</t>
   </si>
 </sst>
 </file>
@@ -4449,7 +4905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42710005-8F53-432E-93B4-A4A73C28AA15}">
   <dimension ref="A1:N1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1193" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1201" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K1263"/>
     </sheetView>
   </sheetViews>
@@ -23008,8 +23464,8 @@
       <c r="E581" t="s">
         <v>1052</v>
       </c>
-      <c r="F581" s="4">
-        <v>42826</v>
+      <c r="F581" s="4" t="s">
+        <v>1351</v>
       </c>
       <c r="G581" t="s">
         <v>1047</v>
@@ -23048,8 +23504,8 @@
       <c r="E582" t="s">
         <v>1052</v>
       </c>
-      <c r="F582" s="4">
-        <v>42826</v>
+      <c r="F582" s="4" t="s">
+        <v>1351</v>
       </c>
       <c r="G582" t="s">
         <v>1047</v>
@@ -23091,8 +23547,8 @@
       <c r="E583" t="s">
         <v>1053</v>
       </c>
-      <c r="F583" s="4">
-        <v>43617</v>
+      <c r="F583" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="G583" t="s">
         <v>1048</v>
@@ -23134,8 +23590,8 @@
       <c r="E584" t="s">
         <v>1054</v>
       </c>
-      <c r="F584" s="4">
-        <v>41760</v>
+      <c r="F584" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="G584" t="s">
         <v>1047</v>
@@ -23174,8 +23630,8 @@
       <c r="E585" t="s">
         <v>1055</v>
       </c>
-      <c r="F585" s="4">
-        <v>43009</v>
+      <c r="F585" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G585" t="s">
         <v>1048</v>
@@ -23214,8 +23670,8 @@
       <c r="E586" t="s">
         <v>1056</v>
       </c>
-      <c r="F586" s="4">
-        <v>45231</v>
+      <c r="F586" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G586" t="s">
         <v>1047</v>
@@ -23257,8 +23713,8 @@
       <c r="E587" t="s">
         <v>1057</v>
       </c>
-      <c r="F587" s="4">
-        <v>44927</v>
+      <c r="F587" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G587" t="s">
         <v>1048</v>
@@ -23300,8 +23756,8 @@
       <c r="E588" t="s">
         <v>1057</v>
       </c>
-      <c r="F588" s="4">
-        <v>44927</v>
+      <c r="F588" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G588" t="s">
         <v>1048</v>
@@ -23340,8 +23796,8 @@
       <c r="E589" t="s">
         <v>1058</v>
       </c>
-      <c r="F589" s="4">
-        <v>43862</v>
+      <c r="F589" s="4" t="s">
+        <v>1357</v>
       </c>
       <c r="G589" t="s">
         <v>1047</v>
@@ -23380,8 +23836,8 @@
       <c r="E590" t="s">
         <v>1059</v>
       </c>
-      <c r="F590" s="4">
-        <v>32964</v>
+      <c r="F590" s="4" t="s">
+        <v>1358</v>
       </c>
       <c r="G590" t="s">
         <v>1047</v>
@@ -23423,8 +23879,8 @@
       <c r="E591" t="s">
         <v>1060</v>
       </c>
-      <c r="F591" s="4">
-        <v>34578</v>
+      <c r="F591" s="4" t="s">
+        <v>1359</v>
       </c>
       <c r="G591" t="s">
         <v>1048</v>
@@ -23463,8 +23919,8 @@
       <c r="E592" t="s">
         <v>1061</v>
       </c>
-      <c r="F592" s="4">
-        <v>45078</v>
+      <c r="F592" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G592" t="s">
         <v>1047</v>
@@ -23503,8 +23959,8 @@
       <c r="E593" t="s">
         <v>1062</v>
       </c>
-      <c r="F593" s="4">
-        <v>43709</v>
+      <c r="F593" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G593" t="s">
         <v>1048</v>
@@ -23546,8 +24002,8 @@
       <c r="E594" t="s">
         <v>1063</v>
       </c>
-      <c r="F594" s="4">
-        <v>42278</v>
+      <c r="F594" s="4" t="s">
+        <v>1362</v>
       </c>
       <c r="G594" t="s">
         <v>1048</v>
@@ -23586,8 +24042,8 @@
       <c r="E595" t="s">
         <v>1053</v>
       </c>
-      <c r="F595" s="4">
-        <v>43617</v>
+      <c r="F595" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="G595" t="s">
         <v>1048</v>
@@ -23629,8 +24085,8 @@
       <c r="E596" t="s">
         <v>1064</v>
       </c>
-      <c r="F596" s="4">
-        <v>45200</v>
+      <c r="F596" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G596" t="s">
         <v>1048</v>
@@ -23669,8 +24125,8 @@
       <c r="E597" t="s">
         <v>1065</v>
       </c>
-      <c r="F597" s="4">
-        <v>44958</v>
+      <c r="F597" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G597" t="s">
         <v>1048</v>
@@ -23709,8 +24165,8 @@
       <c r="E598" t="s">
         <v>1066</v>
       </c>
-      <c r="F598" s="4">
-        <v>35765</v>
+      <c r="F598" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="G598" t="s">
         <v>1049</v>
@@ -23749,8 +24205,8 @@
       <c r="E599" t="s">
         <v>1067</v>
       </c>
-      <c r="F599" s="4">
-        <v>42339</v>
+      <c r="F599" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="G599" t="s">
         <v>1049</v>
@@ -23789,8 +24245,8 @@
       <c r="E600" t="s">
         <v>1068</v>
       </c>
-      <c r="F600" s="4">
-        <v>45078</v>
+      <c r="F600" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G600" t="s">
         <v>1048</v>
@@ -23829,8 +24285,8 @@
       <c r="E601" t="s">
         <v>1069</v>
       </c>
-      <c r="F601" s="4">
-        <v>32387</v>
+      <c r="F601" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="G601" t="s">
         <v>1048</v>
@@ -23872,8 +24328,8 @@
       <c r="E602" t="s">
         <v>1070</v>
       </c>
-      <c r="F602" s="4">
-        <v>43891</v>
+      <c r="F602" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="G602" t="s">
         <v>1047</v>
@@ -23912,8 +24368,8 @@
       <c r="E603" t="s">
         <v>1071</v>
       </c>
-      <c r="F603" s="4">
-        <v>42156</v>
+      <c r="F603" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="G603" t="s">
         <v>1048</v>
@@ -23952,8 +24408,8 @@
       <c r="E604" t="s">
         <v>1071</v>
       </c>
-      <c r="F604" s="4">
-        <v>42156</v>
+      <c r="F604" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="G604" t="s">
         <v>1048</v>
@@ -23992,8 +24448,8 @@
       <c r="E605" t="s">
         <v>1071</v>
       </c>
-      <c r="F605" s="4">
-        <v>42156</v>
+      <c r="F605" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="G605" t="s">
         <v>1048</v>
@@ -24032,8 +24488,8 @@
       <c r="E606" t="s">
         <v>1071</v>
       </c>
-      <c r="F606" s="4">
-        <v>42156</v>
+      <c r="F606" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="G606" t="s">
         <v>1048</v>
@@ -24072,8 +24528,8 @@
       <c r="E607" t="s">
         <v>1072</v>
       </c>
-      <c r="F607" s="4">
-        <v>45047</v>
+      <c r="F607" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G607" t="s">
         <v>1048</v>
@@ -24115,8 +24571,8 @@
       <c r="E608" t="s">
         <v>1073</v>
       </c>
-      <c r="F608" s="4">
-        <v>45047</v>
+      <c r="F608" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G608" t="s">
         <v>1047</v>
@@ -24155,8 +24611,8 @@
       <c r="E609" t="s">
         <v>1074</v>
       </c>
-      <c r="F609" s="4">
-        <v>31017</v>
+      <c r="F609" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G609" t="s">
         <v>1049</v>
@@ -24198,8 +24654,8 @@
       <c r="E610" t="s">
         <v>1075</v>
       </c>
-      <c r="F610" s="4">
-        <v>41306</v>
+      <c r="F610" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="G610" t="s">
         <v>1047</v>
@@ -24238,8 +24694,8 @@
       <c r="E611" t="s">
         <v>1076</v>
       </c>
-      <c r="F611" s="4">
-        <v>45261</v>
+      <c r="F611" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G611" t="s">
         <v>1047</v>
@@ -24278,8 +24734,8 @@
       <c r="E612" t="s">
         <v>1077</v>
       </c>
-      <c r="F612" s="4">
-        <v>31594</v>
+      <c r="F612" s="4" t="s">
+        <v>1374</v>
       </c>
       <c r="G612" t="s">
         <v>1048</v>
@@ -24321,8 +24777,8 @@
       <c r="E613" t="s">
         <v>1060</v>
       </c>
-      <c r="F613" s="4">
-        <v>34578</v>
+      <c r="F613" s="4" t="s">
+        <v>1359</v>
       </c>
       <c r="G613" t="s">
         <v>1048</v>
@@ -24361,8 +24817,8 @@
       <c r="E614" t="s">
         <v>1078</v>
       </c>
-      <c r="F614" s="4">
-        <v>43983</v>
+      <c r="F614" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G614" t="s">
         <v>1048</v>
@@ -24401,8 +24857,8 @@
       <c r="E615" t="s">
         <v>1079</v>
       </c>
-      <c r="F615" s="4">
-        <v>45108</v>
+      <c r="F615" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="G615" t="s">
         <v>1047</v>
@@ -24441,8 +24897,8 @@
       <c r="E616" t="s">
         <v>1080</v>
       </c>
-      <c r="F616" s="4">
-        <v>32143</v>
+      <c r="F616" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="G616" t="s">
         <v>1047</v>
@@ -24484,8 +24940,8 @@
       <c r="E617" t="s">
         <v>1081</v>
       </c>
-      <c r="F617" s="4">
-        <v>42979</v>
+      <c r="F617" s="4" t="s">
+        <v>1378</v>
       </c>
       <c r="G617" t="s">
         <v>1048</v>
@@ -24524,8 +24980,8 @@
       <c r="E618" t="s">
         <v>1082</v>
       </c>
-      <c r="F618" s="4">
-        <v>43132</v>
+      <c r="F618" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="G618" t="s">
         <v>1047</v>
@@ -24564,8 +25020,8 @@
       <c r="E619" t="s">
         <v>1062</v>
       </c>
-      <c r="F619" s="4">
-        <v>43709</v>
+      <c r="F619" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G619" t="s">
         <v>1048</v>
@@ -24604,8 +25060,8 @@
       <c r="E620" t="s">
         <v>1083</v>
       </c>
-      <c r="F620" s="4">
-        <v>43466</v>
+      <c r="F620" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G620" t="s">
         <v>1047</v>
@@ -24647,8 +25103,8 @@
       <c r="E621" t="s">
         <v>1084</v>
       </c>
-      <c r="F621" s="4">
-        <v>43739</v>
+      <c r="F621" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G621" t="s">
         <v>1048</v>
@@ -24690,8 +25146,8 @@
       <c r="E622" t="s">
         <v>1084</v>
       </c>
-      <c r="F622" s="4">
-        <v>43739</v>
+      <c r="F622" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G622" t="s">
         <v>1048</v>
@@ -24730,8 +25186,8 @@
       <c r="E623" t="s">
         <v>1085</v>
       </c>
-      <c r="F623" s="4">
-        <v>43344</v>
+      <c r="F623" s="4" t="s">
+        <v>1382</v>
       </c>
       <c r="G623" t="s">
         <v>1048</v>
@@ -24770,8 +25226,8 @@
       <c r="E624" t="s">
         <v>1086</v>
       </c>
-      <c r="F624" s="4">
-        <v>45261</v>
+      <c r="F624" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G624" t="s">
         <v>1049</v>
@@ -24813,8 +25269,8 @@
       <c r="E625" t="s">
         <v>1087</v>
       </c>
-      <c r="F625" s="4">
-        <v>42552</v>
+      <c r="F625" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G625" t="s">
         <v>1048</v>
@@ -24856,8 +25312,8 @@
       <c r="E626" t="s">
         <v>1083</v>
       </c>
-      <c r="F626" s="4">
-        <v>43466</v>
+      <c r="F626" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G626" t="s">
         <v>1047</v>
@@ -24896,8 +25352,8 @@
       <c r="E627" t="s">
         <v>1088</v>
       </c>
-      <c r="F627" s="4">
-        <v>41579</v>
+      <c r="F627" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G627" t="s">
         <v>1049</v>
@@ -24936,8 +25392,8 @@
       <c r="E628" t="s">
         <v>1088</v>
       </c>
-      <c r="F628" s="4">
-        <v>41579</v>
+      <c r="F628" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G628" t="s">
         <v>1049</v>
@@ -24976,8 +25432,8 @@
       <c r="E629" t="s">
         <v>1089</v>
       </c>
-      <c r="F629" s="4">
-        <v>43132</v>
+      <c r="F629" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="G629" t="s">
         <v>1047</v>
@@ -25019,8 +25475,8 @@
       <c r="E630" t="s">
         <v>1090</v>
       </c>
-      <c r="F630" s="4">
-        <v>43160</v>
+      <c r="F630" s="4" t="s">
+        <v>1385</v>
       </c>
       <c r="G630" t="s">
         <v>1047</v>
@@ -25059,8 +25515,8 @@
       <c r="E631" t="s">
         <v>1091</v>
       </c>
-      <c r="F631" s="4">
-        <v>31686</v>
+      <c r="F631" s="4" t="s">
+        <v>1386</v>
       </c>
       <c r="G631" t="s">
         <v>1048</v>
@@ -25102,8 +25558,8 @@
       <c r="E632" t="s">
         <v>1092</v>
       </c>
-      <c r="F632" s="4">
-        <v>33482</v>
+      <c r="F632" s="4" t="s">
+        <v>1387</v>
       </c>
       <c r="G632" t="s">
         <v>1048</v>
@@ -25142,8 +25598,8 @@
       <c r="E633" t="s">
         <v>1093</v>
       </c>
-      <c r="F633" s="4">
-        <v>42736</v>
+      <c r="F633" s="4" t="s">
+        <v>1388</v>
       </c>
       <c r="G633" t="s">
         <v>1047</v>
@@ -25182,8 +25638,8 @@
       <c r="E634" t="s">
         <v>1094</v>
       </c>
-      <c r="F634" s="4">
-        <v>30713</v>
+      <c r="F634" s="4" t="s">
+        <v>1389</v>
       </c>
       <c r="G634" t="s">
         <v>1047</v>
@@ -25225,8 +25681,8 @@
       <c r="E635" t="s">
         <v>1095</v>
       </c>
-      <c r="F635" s="4">
-        <v>45139</v>
+      <c r="F635" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G635" t="s">
         <v>1049</v>
@@ -25265,8 +25721,8 @@
       <c r="E636" t="s">
         <v>1096</v>
       </c>
-      <c r="F636" s="4">
-        <v>33848</v>
+      <c r="F636" s="4" t="s">
+        <v>1391</v>
       </c>
       <c r="G636" t="s">
         <v>1048</v>
@@ -25308,8 +25764,8 @@
       <c r="E637" t="s">
         <v>1097</v>
       </c>
-      <c r="F637" s="4">
-        <v>43709</v>
+      <c r="F637" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G637" t="s">
         <v>1048</v>
@@ -25348,8 +25804,8 @@
       <c r="E638" t="s">
         <v>1098</v>
       </c>
-      <c r="F638" s="4">
-        <v>41579</v>
+      <c r="F638" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G638" t="s">
         <v>1049</v>
@@ -25388,8 +25844,8 @@
       <c r="E639" t="s">
         <v>1098</v>
       </c>
-      <c r="F639" s="4">
-        <v>41579</v>
+      <c r="F639" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G639" t="s">
         <v>1049</v>
@@ -25431,8 +25887,8 @@
       <c r="E640" t="s">
         <v>1099</v>
       </c>
-      <c r="F640" s="4">
-        <v>41579</v>
+      <c r="F640" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G640" t="s">
         <v>1049</v>
@@ -25471,8 +25927,8 @@
       <c r="E641" t="s">
         <v>1100</v>
       </c>
-      <c r="F641" s="4">
-        <v>41791</v>
+      <c r="F641" s="4" t="s">
+        <v>1392</v>
       </c>
       <c r="G641" t="s">
         <v>1048</v>
@@ -25511,8 +25967,8 @@
       <c r="E642" t="s">
         <v>1101</v>
       </c>
-      <c r="F642" s="4">
-        <v>44044</v>
+      <c r="F642" s="4" t="s">
+        <v>1393</v>
       </c>
       <c r="G642" t="s">
         <v>1048</v>
@@ -25554,8 +26010,8 @@
       <c r="E643" t="s">
         <v>1102</v>
       </c>
-      <c r="F643" s="4">
-        <v>34394</v>
+      <c r="F643" s="4" t="s">
+        <v>1394</v>
       </c>
       <c r="G643" t="s">
         <v>1047</v>
@@ -25594,8 +26050,8 @@
       <c r="E644" t="s">
         <v>1103</v>
       </c>
-      <c r="F644" s="4">
-        <v>36281</v>
+      <c r="F644" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G644" t="s">
         <v>1047</v>
@@ -25634,8 +26090,8 @@
       <c r="E645" t="s">
         <v>1104</v>
       </c>
-      <c r="F645" s="4">
-        <v>31291</v>
+      <c r="F645" s="4" t="s">
+        <v>1396</v>
       </c>
       <c r="G645" t="s">
         <v>1048</v>
@@ -25677,8 +26133,8 @@
       <c r="E646" t="s">
         <v>1105</v>
       </c>
-      <c r="F646" s="4">
-        <v>32295</v>
+      <c r="F646" s="4" t="s">
+        <v>1397</v>
       </c>
       <c r="G646" t="s">
         <v>1048</v>
@@ -25717,8 +26173,8 @@
       <c r="E647" t="s">
         <v>1106</v>
       </c>
-      <c r="F647" s="4">
-        <v>45261</v>
+      <c r="F647" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G647" t="s">
         <v>1048</v>
@@ -25760,8 +26216,8 @@
       <c r="E648" t="s">
         <v>1107</v>
       </c>
-      <c r="F648" s="4">
-        <v>45200</v>
+      <c r="F648" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G648" t="s">
         <v>1048</v>
@@ -25800,8 +26256,8 @@
       <c r="E649" t="s">
         <v>1108</v>
       </c>
-      <c r="F649" s="4">
-        <v>35704</v>
+      <c r="F649" s="4" t="s">
+        <v>1398</v>
       </c>
       <c r="G649" t="s">
         <v>1048</v>
@@ -25840,8 +26296,8 @@
       <c r="E650" t="s">
         <v>1108</v>
       </c>
-      <c r="F650" s="4">
-        <v>35704</v>
+      <c r="F650" s="4" t="s">
+        <v>1398</v>
       </c>
       <c r="G650" t="s">
         <v>1048</v>
@@ -25883,8 +26339,8 @@
       <c r="E651" t="s">
         <v>1109</v>
       </c>
-      <c r="F651" s="4">
-        <v>43709</v>
+      <c r="F651" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G651" t="s">
         <v>1048</v>
@@ -25923,8 +26379,8 @@
       <c r="E652" t="s">
         <v>1110</v>
       </c>
-      <c r="F652" s="4">
-        <v>42125</v>
+      <c r="F652" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G652" t="s">
         <v>1047</v>
@@ -25963,8 +26419,8 @@
       <c r="E653" t="s">
         <v>1111</v>
       </c>
-      <c r="F653" s="4">
-        <v>41913</v>
+      <c r="F653" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G653" t="s">
         <v>1048</v>
@@ -26006,8 +26462,8 @@
       <c r="E654" t="s">
         <v>1112</v>
       </c>
-      <c r="F654" s="4">
-        <v>32905</v>
+      <c r="F654" s="4" t="s">
+        <v>1401</v>
       </c>
       <c r="G654" t="s">
         <v>1047</v>
@@ -26046,8 +26502,8 @@
       <c r="E655" t="s">
         <v>1113</v>
       </c>
-      <c r="F655" s="4">
-        <v>42491</v>
+      <c r="F655" s="4" t="s">
+        <v>1402</v>
       </c>
       <c r="G655" t="s">
         <v>1047</v>
@@ -26086,8 +26542,8 @@
       <c r="E656" t="s">
         <v>1113</v>
       </c>
-      <c r="F656" s="4">
-        <v>42491</v>
+      <c r="F656" s="4" t="s">
+        <v>1402</v>
       </c>
       <c r="G656" t="s">
         <v>1047</v>
@@ -26129,8 +26585,8 @@
       <c r="E657" t="s">
         <v>1114</v>
       </c>
-      <c r="F657" s="4">
-        <v>43525</v>
+      <c r="F657" s="4" t="s">
+        <v>1403</v>
       </c>
       <c r="G657" t="s">
         <v>1047</v>
@@ -26169,8 +26625,8 @@
       <c r="E658" t="s">
         <v>1076</v>
       </c>
-      <c r="F658" s="4">
-        <v>45261</v>
+      <c r="F658" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G658" t="s">
         <v>1047</v>
@@ -26212,8 +26668,8 @@
       <c r="E659" t="s">
         <v>1115</v>
       </c>
-      <c r="F659" s="4">
-        <v>44256</v>
+      <c r="F659" s="4" t="s">
+        <v>1404</v>
       </c>
       <c r="G659" t="s">
         <v>1047</v>
@@ -26252,8 +26708,8 @@
       <c r="E660" t="s">
         <v>1073</v>
       </c>
-      <c r="F660" s="4">
-        <v>45047</v>
+      <c r="F660" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G660" t="s">
         <v>1047</v>
@@ -26292,8 +26748,8 @@
       <c r="E661" t="s">
         <v>1116</v>
       </c>
-      <c r="F661" s="4">
-        <v>33329</v>
+      <c r="F661" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G661" t="s">
         <v>1047</v>
@@ -26335,8 +26791,8 @@
       <c r="E662" t="s">
         <v>1117</v>
       </c>
-      <c r="F662" s="4">
-        <v>44927</v>
+      <c r="F662" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G662" t="s">
         <v>1047</v>
@@ -26375,8 +26831,8 @@
       <c r="E663" t="s">
         <v>1118</v>
       </c>
-      <c r="F663" s="4">
-        <v>43678</v>
+      <c r="F663" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="G663" t="s">
         <v>1048</v>
@@ -26418,8 +26874,8 @@
       <c r="E664" t="s">
         <v>1119</v>
       </c>
-      <c r="F664" s="4">
-        <v>45047</v>
+      <c r="F664" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G664" t="s">
         <v>1048</v>
@@ -26458,8 +26914,8 @@
       <c r="E665" t="s">
         <v>1120</v>
       </c>
-      <c r="F665" s="4">
-        <v>43739</v>
+      <c r="F665" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G665" t="s">
         <v>1048</v>
@@ -26498,8 +26954,8 @@
       <c r="E666" t="s">
         <v>1121</v>
       </c>
-      <c r="F666" s="4">
-        <v>45261</v>
+      <c r="F666" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G666" t="s">
         <v>1048</v>
@@ -26541,8 +26997,8 @@
       <c r="E667" t="s">
         <v>1122</v>
       </c>
-      <c r="F667" s="4">
-        <v>43983</v>
+      <c r="F667" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G667" t="s">
         <v>1048</v>
@@ -26581,8 +27037,8 @@
       <c r="E668" t="s">
         <v>1123</v>
       </c>
-      <c r="F668" s="4">
-        <v>45200</v>
+      <c r="F668" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G668" t="s">
         <v>1047</v>
@@ -26621,8 +27077,8 @@
       <c r="E669" t="s">
         <v>1124</v>
       </c>
-      <c r="F669" s="4">
-        <v>35582</v>
+      <c r="F669" s="4" t="s">
+        <v>1407</v>
       </c>
       <c r="G669" t="s">
         <v>1048</v>
@@ -26664,8 +27120,8 @@
       <c r="E670" t="s">
         <v>1125</v>
       </c>
-      <c r="F670" s="4">
-        <v>43800</v>
+      <c r="F670" s="4" t="s">
+        <v>1408</v>
       </c>
       <c r="G670" t="s">
         <v>1049</v>
@@ -26704,8 +27160,8 @@
       <c r="E671" t="s">
         <v>1126</v>
       </c>
-      <c r="F671" s="4">
-        <v>41275</v>
+      <c r="F671" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G671" t="s">
         <v>1047</v>
@@ -26744,8 +27200,8 @@
       <c r="E672" t="s">
         <v>1126</v>
       </c>
-      <c r="F672" s="4">
-        <v>41275</v>
+      <c r="F672" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G672" t="s">
         <v>1047</v>
@@ -26784,8 +27240,8 @@
       <c r="E673" t="s">
         <v>1126</v>
       </c>
-      <c r="F673" s="4">
-        <v>41275</v>
+      <c r="F673" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G673" t="s">
         <v>1047</v>
@@ -26824,8 +27280,8 @@
       <c r="E674" t="s">
         <v>1127</v>
       </c>
-      <c r="F674" s="4">
-        <v>45017</v>
+      <c r="F674" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G674" t="s">
         <v>1048</v>
@@ -26867,8 +27323,8 @@
       <c r="E675" t="s">
         <v>1128</v>
       </c>
-      <c r="F675" s="4">
-        <v>43070</v>
+      <c r="F675" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G675" t="s">
         <v>1049</v>
@@ -26910,8 +27366,8 @@
       <c r="E676" t="s">
         <v>1129</v>
       </c>
-      <c r="F676" s="4">
-        <v>42675</v>
+      <c r="F676" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G676" t="s">
         <v>1049</v>
@@ -26950,8 +27406,8 @@
       <c r="E677" t="s">
         <v>1130</v>
       </c>
-      <c r="F677" s="4">
-        <v>44927</v>
+      <c r="F677" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G677" t="s">
         <v>1048</v>
@@ -26993,8 +27449,8 @@
       <c r="E678" t="s">
         <v>1109</v>
       </c>
-      <c r="F678" s="4">
-        <v>43709</v>
+      <c r="F678" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G678" t="s">
         <v>1048</v>
@@ -27033,8 +27489,8 @@
       <c r="E679" t="s">
         <v>1131</v>
       </c>
-      <c r="F679" s="4">
-        <v>44013</v>
+      <c r="F679" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G679" t="s">
         <v>1048</v>
@@ -27076,8 +27532,8 @@
       <c r="E680" t="s">
         <v>1055</v>
       </c>
-      <c r="F680" s="4">
-        <v>43009</v>
+      <c r="F680" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G680" t="s">
         <v>1048</v>
@@ -27116,8 +27572,8 @@
       <c r="E681" t="s">
         <v>1132</v>
       </c>
-      <c r="F681" s="4">
-        <v>41944</v>
+      <c r="F681" s="4" t="s">
+        <v>1414</v>
       </c>
       <c r="G681" t="s">
         <v>1049</v>
@@ -27156,8 +27612,8 @@
       <c r="E682" t="s">
         <v>1133</v>
       </c>
-      <c r="F682" s="4">
-        <v>33756</v>
+      <c r="F682" s="4" t="s">
+        <v>1415</v>
       </c>
       <c r="G682" t="s">
         <v>1048</v>
@@ -27199,8 +27655,8 @@
       <c r="E683" t="s">
         <v>1134</v>
       </c>
-      <c r="F683" s="4">
-        <v>36130</v>
+      <c r="F683" s="4" t="s">
+        <v>1416</v>
       </c>
       <c r="G683" t="s">
         <v>1049</v>
@@ -27239,8 +27695,8 @@
       <c r="E684" t="s">
         <v>1135</v>
       </c>
-      <c r="F684" s="4">
-        <v>27668</v>
+      <c r="F684" s="4" t="s">
+        <v>1417</v>
       </c>
       <c r="G684" t="s">
         <v>1048</v>
@@ -27282,8 +27738,8 @@
       <c r="E685" t="s">
         <v>1136</v>
       </c>
-      <c r="F685" s="4">
-        <v>45017</v>
+      <c r="F685" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G685" t="s">
         <v>1047</v>
@@ -27322,8 +27778,8 @@
       <c r="E686" t="s">
         <v>1137</v>
       </c>
-      <c r="F686" s="4">
-        <v>42005</v>
+      <c r="F686" s="4" t="s">
+        <v>1418</v>
       </c>
       <c r="G686" t="s">
         <v>1047</v>
@@ -27365,8 +27821,8 @@
       <c r="E687" t="s">
         <v>1138</v>
       </c>
-      <c r="F687" s="4">
-        <v>43952</v>
+      <c r="F687" s="4" t="s">
+        <v>1419</v>
       </c>
       <c r="G687" t="s">
         <v>1047</v>
@@ -27405,8 +27861,8 @@
       <c r="E688" t="s">
         <v>1139</v>
       </c>
-      <c r="F688" s="4">
-        <v>34943</v>
+      <c r="F688" s="4" t="s">
+        <v>1420</v>
       </c>
       <c r="G688" t="s">
         <v>1048</v>
@@ -27445,8 +27901,8 @@
       <c r="E689" t="s">
         <v>1139</v>
       </c>
-      <c r="F689" s="4">
-        <v>34943</v>
+      <c r="F689" s="4" t="s">
+        <v>1420</v>
       </c>
       <c r="G689" t="s">
         <v>1048</v>
@@ -27488,8 +27944,8 @@
       <c r="E690" t="s">
         <v>1140</v>
       </c>
-      <c r="F690" s="4">
-        <v>42461</v>
+      <c r="F690" s="4" t="s">
+        <v>1421</v>
       </c>
       <c r="G690" t="s">
         <v>1047</v>
@@ -27528,8 +27984,8 @@
       <c r="E691" t="s">
         <v>1141</v>
       </c>
-      <c r="F691" s="4">
-        <v>34121</v>
+      <c r="F691" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="G691" t="s">
         <v>1048</v>
@@ -27571,8 +28027,8 @@
       <c r="E692" t="s">
         <v>1064</v>
       </c>
-      <c r="F692" s="4">
-        <v>45200</v>
+      <c r="F692" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G692" t="s">
         <v>1048</v>
@@ -27611,8 +28067,8 @@
       <c r="E693" t="s">
         <v>1142</v>
       </c>
-      <c r="F693" s="4">
-        <v>45078</v>
+      <c r="F693" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G693" t="s">
         <v>1048</v>
@@ -27654,8 +28110,8 @@
       <c r="E694" t="s">
         <v>1143</v>
       </c>
-      <c r="F694" s="4">
-        <v>43556</v>
+      <c r="F694" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G694" t="s">
         <v>1047</v>
@@ -27697,8 +28153,8 @@
       <c r="E695" t="s">
         <v>1143</v>
       </c>
-      <c r="F695" s="4">
-        <v>43556</v>
+      <c r="F695" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G695" t="s">
         <v>1047</v>
@@ -27737,8 +28193,8 @@
       <c r="E696" t="s">
         <v>1144</v>
       </c>
-      <c r="F696" s="4">
-        <v>44986</v>
+      <c r="F696" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G696" t="s">
         <v>1048</v>
@@ -27777,8 +28233,8 @@
       <c r="E697" t="s">
         <v>1145</v>
       </c>
-      <c r="F697" s="4">
-        <v>45047</v>
+      <c r="F697" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G697" t="s">
         <v>1047</v>
@@ -27817,8 +28273,8 @@
       <c r="E698" t="s">
         <v>1146</v>
       </c>
-      <c r="F698" s="4">
-        <v>45108</v>
+      <c r="F698" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="G698" t="s">
         <v>1048</v>
@@ -27857,8 +28313,8 @@
       <c r="E699" t="s">
         <v>1147</v>
       </c>
-      <c r="F699" s="4">
-        <v>28703</v>
+      <c r="F699" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="G699" t="s">
         <v>1048</v>
@@ -27900,8 +28356,8 @@
       <c r="E700" t="s">
         <v>1148</v>
       </c>
-      <c r="F700" s="4">
-        <v>45047</v>
+      <c r="F700" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G700" t="s">
         <v>1048</v>
@@ -27940,8 +28396,8 @@
       <c r="E701" t="s">
         <v>1149</v>
       </c>
-      <c r="F701" s="4">
-        <v>43405</v>
+      <c r="F701" s="4" t="s">
+        <v>1426</v>
       </c>
       <c r="G701" t="s">
         <v>1049</v>
@@ -27983,8 +28439,8 @@
       <c r="E702" t="s">
         <v>1150</v>
       </c>
-      <c r="F702" s="4">
-        <v>42675</v>
+      <c r="F702" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G702" t="s">
         <v>1049</v>
@@ -28026,8 +28482,8 @@
       <c r="E703" t="s">
         <v>1151</v>
       </c>
-      <c r="F703" s="4">
-        <v>45261</v>
+      <c r="F703" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G703" t="s">
         <v>1047</v>
@@ -28069,8 +28525,8 @@
       <c r="E704" t="s">
         <v>1152</v>
       </c>
-      <c r="F704" s="4">
-        <v>44013</v>
+      <c r="F704" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G704" t="s">
         <v>1048</v>
@@ -28109,8 +28565,8 @@
       <c r="E705" t="s">
         <v>1153</v>
       </c>
-      <c r="F705" s="4">
-        <v>45139</v>
+      <c r="F705" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G705" t="s">
         <v>1047</v>
@@ -28149,8 +28605,8 @@
       <c r="E706" t="s">
         <v>1153</v>
       </c>
-      <c r="F706" s="4">
-        <v>45139</v>
+      <c r="F706" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G706" t="s">
         <v>1047</v>
@@ -28192,8 +28648,8 @@
       <c r="E707" t="s">
         <v>1154</v>
       </c>
-      <c r="F707" s="4">
-        <v>33756</v>
+      <c r="F707" s="4" t="s">
+        <v>1415</v>
       </c>
       <c r="G707" t="s">
         <v>1048</v>
@@ -28232,8 +28688,8 @@
       <c r="E708" t="s">
         <v>1155</v>
       </c>
-      <c r="F708" s="4">
-        <v>45231</v>
+      <c r="F708" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G708" t="s">
         <v>1047</v>
@@ -28275,8 +28731,8 @@
       <c r="E709" t="s">
         <v>1089</v>
       </c>
-      <c r="F709" s="4">
-        <v>43132</v>
+      <c r="F709" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="G709" t="s">
         <v>1047</v>
@@ -28315,8 +28771,8 @@
       <c r="E710" t="s">
         <v>1156</v>
       </c>
-      <c r="F710" s="4">
-        <v>44927</v>
+      <c r="F710" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G710" t="s">
         <v>1047</v>
@@ -28358,8 +28814,8 @@
       <c r="E711" t="s">
         <v>1074</v>
       </c>
-      <c r="F711" s="4">
-        <v>31017</v>
+      <c r="F711" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G711" t="s">
         <v>1049</v>
@@ -28398,8 +28854,8 @@
       <c r="E712" t="s">
         <v>1157</v>
       </c>
-      <c r="F712" s="4">
-        <v>43435</v>
+      <c r="F712" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G712" t="s">
         <v>1049</v>
@@ -28438,8 +28894,8 @@
       <c r="E713" t="s">
         <v>1158</v>
       </c>
-      <c r="F713" s="4">
-        <v>44958</v>
+      <c r="F713" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G713" t="s">
         <v>1049</v>
@@ -28481,8 +28937,8 @@
       <c r="E714" t="s">
         <v>1072</v>
       </c>
-      <c r="F714" s="4">
-        <v>45047</v>
+      <c r="F714" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G714" t="s">
         <v>1048</v>
@@ -28521,8 +28977,8 @@
       <c r="E715" t="s">
         <v>1158</v>
       </c>
-      <c r="F715" s="4">
-        <v>44958</v>
+      <c r="F715" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G715" t="s">
         <v>1049</v>
@@ -28561,8 +29017,8 @@
       <c r="E716" t="s">
         <v>1159</v>
       </c>
-      <c r="F716" s="4">
-        <v>45231</v>
+      <c r="F716" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G716" t="s">
         <v>1049</v>
@@ -28601,8 +29057,8 @@
       <c r="E717" t="s">
         <v>1159</v>
       </c>
-      <c r="F717" s="4">
-        <v>45231</v>
+      <c r="F717" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G717" t="s">
         <v>1049</v>
@@ -28644,8 +29100,8 @@
       <c r="E718" t="s">
         <v>1160</v>
       </c>
-      <c r="F718" s="4">
-        <v>43831</v>
+      <c r="F718" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="G718" t="s">
         <v>1047</v>
@@ -28684,8 +29140,8 @@
       <c r="E719" t="s">
         <v>1139</v>
       </c>
-      <c r="F719" s="4">
-        <v>34943</v>
+      <c r="F719" s="4" t="s">
+        <v>1420</v>
       </c>
       <c r="G719" t="s">
         <v>1048</v>
@@ -28724,8 +29180,8 @@
       <c r="E720" t="s">
         <v>1161</v>
       </c>
-      <c r="F720" s="4">
-        <v>43221</v>
+      <c r="F720" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G720" t="s">
         <v>1047</v>
@@ -28767,8 +29223,8 @@
       <c r="E721" t="s">
         <v>1162</v>
       </c>
-      <c r="F721" s="4">
-        <v>44075</v>
+      <c r="F721" s="4" t="s">
+        <v>1430</v>
       </c>
       <c r="G721" t="s">
         <v>1048</v>
@@ -28807,8 +29263,8 @@
       <c r="E722" t="s">
         <v>1057</v>
       </c>
-      <c r="F722" s="4">
-        <v>44927</v>
+      <c r="F722" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G722" t="s">
         <v>1048</v>
@@ -28847,8 +29303,8 @@
       <c r="E723" t="s">
         <v>1057</v>
       </c>
-      <c r="F723" s="4">
-        <v>44927</v>
+      <c r="F723" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G723" t="s">
         <v>1048</v>
@@ -28887,8 +29343,8 @@
       <c r="E724" t="s">
         <v>1163</v>
       </c>
-      <c r="F724" s="4">
-        <v>45078</v>
+      <c r="F724" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G724" t="s">
         <v>1049</v>
@@ -28927,8 +29383,8 @@
       <c r="E725" t="s">
         <v>1113</v>
       </c>
-      <c r="F725" s="4">
-        <v>42491</v>
+      <c r="F725" s="4" t="s">
+        <v>1402</v>
       </c>
       <c r="G725" t="s">
         <v>1047</v>
@@ -28970,8 +29426,8 @@
       <c r="E726" t="s">
         <v>1164</v>
       </c>
-      <c r="F726" s="4">
-        <v>43678</v>
+      <c r="F726" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="G726" t="s">
         <v>1048</v>
@@ -29010,8 +29466,8 @@
       <c r="E727" t="s">
         <v>1165</v>
       </c>
-      <c r="F727" s="4">
-        <v>43862</v>
+      <c r="F727" s="4" t="s">
+        <v>1357</v>
       </c>
       <c r="G727" t="s">
         <v>1047</v>
@@ -29053,8 +29509,8 @@
       <c r="E728" t="s">
         <v>1166</v>
       </c>
-      <c r="F728" s="4">
-        <v>42125</v>
+      <c r="F728" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G728" t="s">
         <v>1047</v>
@@ -29093,8 +29549,8 @@
       <c r="E729" t="s">
         <v>1167</v>
       </c>
-      <c r="F729" s="4">
-        <v>42917</v>
+      <c r="F729" s="4" t="s">
+        <v>1431</v>
       </c>
       <c r="G729" t="s">
         <v>1048</v>
@@ -29136,8 +29592,8 @@
       <c r="E730" t="s">
         <v>1135</v>
       </c>
-      <c r="F730" s="4">
-        <v>27668</v>
+      <c r="F730" s="4" t="s">
+        <v>1417</v>
       </c>
       <c r="G730" t="s">
         <v>1048</v>
@@ -29176,8 +29632,8 @@
       <c r="E731" t="s">
         <v>1168</v>
       </c>
-      <c r="F731" s="4">
-        <v>31929</v>
+      <c r="F731" s="4" t="s">
+        <v>1432</v>
       </c>
       <c r="G731" t="s">
         <v>1048</v>
@@ -29216,8 +29672,8 @@
       <c r="E732" t="s">
         <v>1169</v>
       </c>
-      <c r="F732" s="4">
-        <v>42370</v>
+      <c r="F732" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G732" t="s">
         <v>1047</v>
@@ -29259,8 +29715,8 @@
       <c r="E733" t="s">
         <v>1170</v>
       </c>
-      <c r="F733" s="4">
-        <v>42583</v>
+      <c r="F733" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="G733" t="s">
         <v>1048</v>
@@ -29299,8 +29755,8 @@
       <c r="E734" t="s">
         <v>1111</v>
       </c>
-      <c r="F734" s="4">
-        <v>41913</v>
+      <c r="F734" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G734" t="s">
         <v>1048</v>
@@ -29342,8 +29798,8 @@
       <c r="E735" t="s">
         <v>1171</v>
       </c>
-      <c r="F735" s="4">
-        <v>41334</v>
+      <c r="F735" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="G735" t="s">
         <v>1047</v>
@@ -29382,8 +29838,8 @@
       <c r="E736" t="s">
         <v>1172</v>
       </c>
-      <c r="F736" s="4">
-        <v>30773</v>
+      <c r="F736" s="4" t="s">
+        <v>1436</v>
       </c>
       <c r="G736" t="s">
         <v>1047</v>
@@ -29422,8 +29878,8 @@
       <c r="E737" t="s">
         <v>1059</v>
       </c>
-      <c r="F737" s="4">
-        <v>32964</v>
+      <c r="F737" s="4" t="s">
+        <v>1358</v>
       </c>
       <c r="G737" t="s">
         <v>1047</v>
@@ -29465,8 +29921,8 @@
       <c r="E738" t="s">
         <v>1173</v>
       </c>
-      <c r="F738" s="4">
-        <v>45231</v>
+      <c r="F738" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G738" t="s">
         <v>1047</v>
@@ -29508,8 +29964,8 @@
       <c r="E739" t="s">
         <v>1173</v>
       </c>
-      <c r="F739" s="4">
-        <v>45231</v>
+      <c r="F739" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G739" t="s">
         <v>1047</v>
@@ -29551,8 +30007,8 @@
       <c r="E740" t="s">
         <v>1173</v>
       </c>
-      <c r="F740" s="4">
-        <v>45231</v>
+      <c r="F740" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G740" t="s">
         <v>1047</v>
@@ -29591,8 +30047,8 @@
       <c r="E741" t="s">
         <v>1146</v>
       </c>
-      <c r="F741" s="4">
-        <v>45108</v>
+      <c r="F741" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="G741" t="s">
         <v>1048</v>
@@ -29631,8 +30087,8 @@
       <c r="E742" t="s">
         <v>1174</v>
       </c>
-      <c r="F742" s="4">
-        <v>44105</v>
+      <c r="F742" s="4" t="s">
+        <v>1437</v>
       </c>
       <c r="G742" t="s">
         <v>1048</v>
@@ -29674,8 +30130,8 @@
       <c r="E743" t="s">
         <v>1087</v>
       </c>
-      <c r="F743" s="4">
-        <v>42552</v>
+      <c r="F743" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G743" t="s">
         <v>1048</v>
@@ -29714,8 +30170,8 @@
       <c r="E744" t="s">
         <v>1131</v>
       </c>
-      <c r="F744" s="4">
-        <v>44013</v>
+      <c r="F744" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G744" t="s">
         <v>1048</v>
@@ -29754,8 +30210,8 @@
       <c r="E745" t="s">
         <v>1109</v>
       </c>
-      <c r="F745" s="4">
-        <v>43709</v>
+      <c r="F745" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G745" t="s">
         <v>1048</v>
@@ -29794,8 +30250,8 @@
       <c r="E746" t="s">
         <v>1175</v>
       </c>
-      <c r="F746" s="4">
-        <v>41456</v>
+      <c r="F746" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="G746" t="s">
         <v>1048</v>
@@ -29837,8 +30293,8 @@
       <c r="E747" t="s">
         <v>1176</v>
       </c>
-      <c r="F747" s="4">
-        <v>36281</v>
+      <c r="F747" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G747" t="s">
         <v>1047</v>
@@ -29877,8 +30333,8 @@
       <c r="E748" t="s">
         <v>1075</v>
       </c>
-      <c r="F748" s="4">
-        <v>41306</v>
+      <c r="F748" s="4" t="s">
+        <v>1372</v>
       </c>
       <c r="G748" t="s">
         <v>1047</v>
@@ -29920,8 +30376,8 @@
       <c r="E749" t="s">
         <v>1177</v>
       </c>
-      <c r="F749" s="4">
-        <v>35674</v>
+      <c r="F749" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G749" t="s">
         <v>1048</v>
@@ -29960,8 +30416,8 @@
       <c r="E750" t="s">
         <v>1178</v>
       </c>
-      <c r="F750" s="4">
-        <v>44105</v>
+      <c r="F750" s="4" t="s">
+        <v>1437</v>
       </c>
       <c r="G750" t="s">
         <v>1048</v>
@@ -30000,8 +30456,8 @@
       <c r="E751" t="s">
         <v>1179</v>
       </c>
-      <c r="F751" s="4">
-        <v>45261</v>
+      <c r="F751" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G751" t="s">
         <v>1047</v>
@@ -30040,8 +30496,8 @@
       <c r="E752" t="s">
         <v>1131</v>
       </c>
-      <c r="F752" s="4">
-        <v>44013</v>
+      <c r="F752" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G752" t="s">
         <v>1048</v>
@@ -30083,8 +30539,8 @@
       <c r="E753" t="s">
         <v>1180</v>
       </c>
-      <c r="F753" s="4">
-        <v>45231</v>
+      <c r="F753" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G753" t="s">
         <v>1049</v>
@@ -30123,8 +30579,8 @@
       <c r="E754" t="s">
         <v>1148</v>
       </c>
-      <c r="F754" s="4">
-        <v>45047</v>
+      <c r="F754" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G754" t="s">
         <v>1048</v>
@@ -30166,8 +30622,8 @@
       <c r="E755" t="s">
         <v>1181</v>
       </c>
-      <c r="F755" s="4">
-        <v>41852</v>
+      <c r="F755" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="G755" t="s">
         <v>1048</v>
@@ -30209,8 +30665,8 @@
       <c r="E756" t="s">
         <v>1181</v>
       </c>
-      <c r="F756" s="4">
-        <v>41852</v>
+      <c r="F756" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="G756" t="s">
         <v>1048</v>
@@ -30249,8 +30705,8 @@
       <c r="E757" t="s">
         <v>1182</v>
       </c>
-      <c r="F757" s="4">
-        <v>33298</v>
+      <c r="F757" s="4" t="s">
+        <v>1441</v>
       </c>
       <c r="G757" t="s">
         <v>1047</v>
@@ -30292,8 +30748,8 @@
       <c r="E758" t="s">
         <v>1076</v>
       </c>
-      <c r="F758" s="4">
-        <v>45261</v>
+      <c r="F758" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G758" t="s">
         <v>1047</v>
@@ -30332,8 +30788,8 @@
       <c r="E759" t="s">
         <v>1183</v>
       </c>
-      <c r="F759" s="4">
-        <v>45170</v>
+      <c r="F759" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G759" t="s">
         <v>1048</v>
@@ -30375,8 +30831,8 @@
       <c r="E760" t="s">
         <v>1184</v>
       </c>
-      <c r="F760" s="4">
-        <v>32509</v>
+      <c r="F760" s="4" t="s">
+        <v>1443</v>
       </c>
       <c r="G760" t="s">
         <v>1047</v>
@@ -30415,8 +30871,8 @@
       <c r="E761" t="s">
         <v>1185</v>
       </c>
-      <c r="F761" s="4">
-        <v>43922</v>
+      <c r="F761" s="4" t="s">
+        <v>1444</v>
       </c>
       <c r="G761" t="s">
         <v>1047</v>
@@ -30455,8 +30911,8 @@
       <c r="E762" t="s">
         <v>1185</v>
       </c>
-      <c r="F762" s="4">
-        <v>43922</v>
+      <c r="F762" s="4" t="s">
+        <v>1444</v>
       </c>
       <c r="G762" t="s">
         <v>1047</v>
@@ -30495,8 +30951,8 @@
       <c r="E763" t="s">
         <v>1074</v>
       </c>
-      <c r="F763" s="4">
-        <v>31017</v>
+      <c r="F763" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G763" t="s">
         <v>1049</v>
@@ -30538,8 +30994,8 @@
       <c r="E764" t="s">
         <v>1186</v>
       </c>
-      <c r="F764" s="4">
-        <v>43070</v>
+      <c r="F764" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G764" t="s">
         <v>1049</v>
@@ -30578,8 +31034,8 @@
       <c r="E765" t="s">
         <v>1187</v>
       </c>
-      <c r="F765" s="4">
-        <v>28004</v>
+      <c r="F765" s="4" t="s">
+        <v>1445</v>
       </c>
       <c r="G765" t="s">
         <v>1048</v>
@@ -30618,8 +31074,8 @@
       <c r="E766" t="s">
         <v>1098</v>
       </c>
-      <c r="F766" s="4">
-        <v>41579</v>
+      <c r="F766" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G766" t="s">
         <v>1049</v>
@@ -30661,8 +31117,8 @@
       <c r="E767" t="s">
         <v>1085</v>
       </c>
-      <c r="F767" s="4">
-        <v>43344</v>
+      <c r="F767" s="4" t="s">
+        <v>1382</v>
       </c>
       <c r="G767" t="s">
         <v>1048</v>
@@ -30701,8 +31157,8 @@
       <c r="E768" t="s">
         <v>1118</v>
       </c>
-      <c r="F768" s="4">
-        <v>43678</v>
+      <c r="F768" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="G768" t="s">
         <v>1048</v>
@@ -30741,8 +31197,8 @@
       <c r="E769" t="s">
         <v>1188</v>
       </c>
-      <c r="F769" s="4">
-        <v>42491</v>
+      <c r="F769" s="4" t="s">
+        <v>1402</v>
       </c>
       <c r="G769" t="s">
         <v>1047</v>
@@ -30784,8 +31240,8 @@
       <c r="E770" t="s">
         <v>1189</v>
       </c>
-      <c r="F770" s="4">
-        <v>44136</v>
+      <c r="F770" s="4" t="s">
+        <v>1446</v>
       </c>
       <c r="G770" t="s">
         <v>1049</v>
@@ -30824,8 +31280,8 @@
       <c r="E771" t="s">
         <v>1190</v>
       </c>
-      <c r="F771" s="4">
-        <v>30834</v>
+      <c r="F771" s="4" t="s">
+        <v>1447</v>
       </c>
       <c r="G771" t="s">
         <v>1048</v>
@@ -30867,8 +31323,8 @@
       <c r="E772" t="s">
         <v>1191</v>
       </c>
-      <c r="F772" s="4">
-        <v>45200</v>
+      <c r="F772" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G772" t="s">
         <v>1049</v>
@@ -30910,8 +31366,8 @@
       <c r="E773" t="s">
         <v>1191</v>
       </c>
-      <c r="F773" s="4">
-        <v>45200</v>
+      <c r="F773" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G773" t="s">
         <v>1049</v>
@@ -30953,8 +31409,8 @@
       <c r="E774" t="s">
         <v>1191</v>
       </c>
-      <c r="F774" s="4">
-        <v>45200</v>
+      <c r="F774" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G774" t="s">
         <v>1049</v>
@@ -30993,8 +31449,8 @@
       <c r="E775" t="s">
         <v>1066</v>
       </c>
-      <c r="F775" s="4">
-        <v>35765</v>
+      <c r="F775" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="G775" t="s">
         <v>1049</v>
@@ -31033,8 +31489,8 @@
       <c r="E776" t="s">
         <v>1098</v>
       </c>
-      <c r="F776" s="4">
-        <v>41579</v>
+      <c r="F776" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G776" t="s">
         <v>1049</v>
@@ -31076,8 +31532,8 @@
       <c r="E777" t="s">
         <v>1192</v>
       </c>
-      <c r="F777" s="4">
-        <v>43101</v>
+      <c r="F777" s="4" t="s">
+        <v>1448</v>
       </c>
       <c r="G777" t="s">
         <v>1047</v>
@@ -31116,8 +31572,8 @@
       <c r="E778" t="s">
         <v>1193</v>
       </c>
-      <c r="F778" s="4">
-        <v>45170</v>
+      <c r="F778" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G778" t="s">
         <v>1047</v>
@@ -31159,8 +31615,8 @@
       <c r="E779" t="s">
         <v>1194</v>
       </c>
-      <c r="F779" s="4">
-        <v>41275</v>
+      <c r="F779" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G779" t="s">
         <v>1047</v>
@@ -31202,8 +31658,8 @@
       <c r="E780" t="s">
         <v>1194</v>
       </c>
-      <c r="F780" s="4">
-        <v>41275</v>
+      <c r="F780" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G780" t="s">
         <v>1047</v>
@@ -31245,8 +31701,8 @@
       <c r="E781" t="s">
         <v>1194</v>
       </c>
-      <c r="F781" s="4">
-        <v>41275</v>
+      <c r="F781" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G781" t="s">
         <v>1047</v>
@@ -31288,8 +31744,8 @@
       <c r="E782" t="s">
         <v>1194</v>
       </c>
-      <c r="F782" s="4">
-        <v>41275</v>
+      <c r="F782" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G782" t="s">
         <v>1047</v>
@@ -31328,8 +31784,8 @@
       <c r="E783" t="s">
         <v>1195</v>
       </c>
-      <c r="F783" s="4">
-        <v>45170</v>
+      <c r="F783" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G783" t="s">
         <v>1047</v>
@@ -31371,8 +31827,8 @@
       <c r="E784" t="s">
         <v>1196</v>
       </c>
-      <c r="F784" s="4">
-        <v>41365</v>
+      <c r="F784" s="4" t="s">
+        <v>1449</v>
       </c>
       <c r="G784" t="s">
         <v>1047</v>
@@ -31411,8 +31867,8 @@
       <c r="E785" t="s">
         <v>1197</v>
       </c>
-      <c r="F785" s="4">
-        <v>44136</v>
+      <c r="F785" s="4" t="s">
+        <v>1446</v>
       </c>
       <c r="G785" t="s">
         <v>1049</v>
@@ -31451,8 +31907,8 @@
       <c r="E786" t="s">
         <v>1198</v>
       </c>
-      <c r="F786" s="4">
-        <v>45231</v>
+      <c r="F786" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G786" t="s">
         <v>1049</v>
@@ -31494,8 +31950,8 @@
       <c r="E787" t="s">
         <v>1131</v>
       </c>
-      <c r="F787" s="4">
-        <v>44013</v>
+      <c r="F787" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G787" t="s">
         <v>1048</v>
@@ -31537,8 +31993,8 @@
       <c r="E788" t="s">
         <v>1131</v>
       </c>
-      <c r="F788" s="4">
-        <v>44013</v>
+      <c r="F788" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G788" t="s">
         <v>1048</v>
@@ -31580,8 +32036,8 @@
       <c r="E789" t="s">
         <v>1131</v>
       </c>
-      <c r="F789" s="4">
-        <v>44013</v>
+      <c r="F789" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G789" t="s">
         <v>1048</v>
@@ -31620,8 +32076,8 @@
       <c r="E790" t="s">
         <v>1080</v>
       </c>
-      <c r="F790" s="4">
-        <v>32143</v>
+      <c r="F790" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="G790" t="s">
         <v>1047</v>
@@ -31660,8 +32116,8 @@
       <c r="E791" t="s">
         <v>1115</v>
       </c>
-      <c r="F791" s="4">
-        <v>44256</v>
+      <c r="F791" s="4" t="s">
+        <v>1404</v>
       </c>
       <c r="G791" t="s">
         <v>1047</v>
@@ -31703,8 +32159,8 @@
       <c r="E792" t="s">
         <v>1181</v>
       </c>
-      <c r="F792" s="4">
-        <v>41852</v>
+      <c r="F792" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="G792" t="s">
         <v>1048</v>
@@ -31743,8 +32199,8 @@
       <c r="E793" t="s">
         <v>1199</v>
       </c>
-      <c r="F793" s="4">
-        <v>42795</v>
+      <c r="F793" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G793" t="s">
         <v>1047</v>
@@ -31783,8 +32239,8 @@
       <c r="E794" t="s">
         <v>1157</v>
       </c>
-      <c r="F794" s="4">
-        <v>43435</v>
+      <c r="F794" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G794" t="s">
         <v>1049</v>
@@ -31823,8 +32279,8 @@
       <c r="E795" t="s">
         <v>1157</v>
       </c>
-      <c r="F795" s="4">
-        <v>43435</v>
+      <c r="F795" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G795" t="s">
         <v>1049</v>
@@ -31863,8 +32319,8 @@
       <c r="E796" t="s">
         <v>1157</v>
       </c>
-      <c r="F796" s="4">
-        <v>43435</v>
+      <c r="F796" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G796" t="s">
         <v>1049</v>
@@ -31906,8 +32362,8 @@
       <c r="E797" t="s">
         <v>1116</v>
       </c>
-      <c r="F797" s="4">
-        <v>33329</v>
+      <c r="F797" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G797" t="s">
         <v>1047</v>
@@ -31946,8 +32402,8 @@
       <c r="E798" t="s">
         <v>1200</v>
       </c>
-      <c r="F798" s="4">
-        <v>42309</v>
+      <c r="F798" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G798" t="s">
         <v>1049</v>
@@ -31989,8 +32445,8 @@
       <c r="E799" t="s">
         <v>1201</v>
       </c>
-      <c r="F799" s="4">
-        <v>42095</v>
+      <c r="F799" s="4" t="s">
+        <v>1452</v>
       </c>
       <c r="G799" t="s">
         <v>1047</v>
@@ -32029,8 +32485,8 @@
       <c r="E800" t="s">
         <v>1202</v>
       </c>
-      <c r="F800" s="4">
-        <v>41426</v>
+      <c r="F800" s="4" t="s">
+        <v>1453</v>
       </c>
       <c r="G800" t="s">
         <v>1048</v>
@@ -32069,8 +32525,8 @@
       <c r="E801" t="s">
         <v>1203</v>
       </c>
-      <c r="F801" s="4">
-        <v>43466</v>
+      <c r="F801" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G801" t="s">
         <v>1047</v>
@@ -32109,8 +32565,8 @@
       <c r="E802" t="s">
         <v>1203</v>
       </c>
-      <c r="F802" s="4">
-        <v>43466</v>
+      <c r="F802" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G802" t="s">
         <v>1047</v>
@@ -32152,8 +32608,8 @@
       <c r="E803" t="s">
         <v>1150</v>
       </c>
-      <c r="F803" s="4">
-        <v>42675</v>
+      <c r="F803" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G803" t="s">
         <v>1049</v>
@@ -32192,8 +32648,8 @@
       <c r="E804" t="s">
         <v>1204</v>
       </c>
-      <c r="F804" s="4">
-        <v>43647</v>
+      <c r="F804" s="4" t="s">
+        <v>1454</v>
       </c>
       <c r="G804" t="s">
         <v>1048</v>
@@ -32232,8 +32688,8 @@
       <c r="E805" t="s">
         <v>1205</v>
       </c>
-      <c r="F805" s="4">
-        <v>34425</v>
+      <c r="F805" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G805" t="s">
         <v>1047</v>
@@ -32275,8 +32731,8 @@
       <c r="E806" t="s">
         <v>1089</v>
       </c>
-      <c r="F806" s="4">
-        <v>43132</v>
+      <c r="F806" s="4" t="s">
+        <v>1379</v>
       </c>
       <c r="G806" t="s">
         <v>1047</v>
@@ -32315,8 +32771,8 @@
       <c r="E807" t="s">
         <v>1206</v>
       </c>
-      <c r="F807" s="4">
-        <v>43435</v>
+      <c r="F807" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G807" t="s">
         <v>1049</v>
@@ -32355,8 +32811,8 @@
       <c r="E808" t="s">
         <v>1206</v>
       </c>
-      <c r="F808" s="4">
-        <v>43435</v>
+      <c r="F808" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G808" t="s">
         <v>1049</v>
@@ -32398,8 +32854,8 @@
       <c r="E809" t="s">
         <v>1207</v>
       </c>
-      <c r="F809" s="4">
-        <v>33329</v>
+      <c r="F809" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G809" t="s">
         <v>1047</v>
@@ -32438,8 +32894,8 @@
       <c r="E810" t="s">
         <v>1171</v>
       </c>
-      <c r="F810" s="4">
-        <v>41334</v>
+      <c r="F810" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="G810" t="s">
         <v>1047</v>
@@ -32478,8 +32934,8 @@
       <c r="E811" t="s">
         <v>1202</v>
       </c>
-      <c r="F811" s="4">
-        <v>41426</v>
+      <c r="F811" s="4" t="s">
+        <v>1453</v>
       </c>
       <c r="G811" t="s">
         <v>1048</v>
@@ -32521,8 +32977,8 @@
       <c r="E812" t="s">
         <v>1208</v>
       </c>
-      <c r="F812" s="4">
-        <v>44958</v>
+      <c r="F812" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G812" t="s">
         <v>1048</v>
@@ -32561,8 +33017,8 @@
       <c r="E813" t="s">
         <v>1209</v>
       </c>
-      <c r="F813" s="4">
-        <v>34669</v>
+      <c r="F813" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G813" t="s">
         <v>1049</v>
@@ -32601,8 +33057,8 @@
       <c r="E814" t="s">
         <v>1209</v>
       </c>
-      <c r="F814" s="4">
-        <v>34669</v>
+      <c r="F814" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G814" t="s">
         <v>1049</v>
@@ -32641,8 +33097,8 @@
       <c r="E815" t="s">
         <v>1209</v>
       </c>
-      <c r="F815" s="4">
-        <v>34669</v>
+      <c r="F815" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G815" t="s">
         <v>1049</v>
@@ -32681,8 +33137,8 @@
       <c r="E816" t="s">
         <v>1209</v>
       </c>
-      <c r="F816" s="4">
-        <v>34669</v>
+      <c r="F816" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G816" t="s">
         <v>1049</v>
@@ -32721,8 +33177,8 @@
       <c r="E817" t="s">
         <v>1209</v>
       </c>
-      <c r="F817" s="4">
-        <v>34669</v>
+      <c r="F817" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G817" t="s">
         <v>1049</v>
@@ -32761,8 +33217,8 @@
       <c r="E818" t="s">
         <v>1209</v>
       </c>
-      <c r="F818" s="4">
-        <v>34669</v>
+      <c r="F818" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G818" t="s">
         <v>1049</v>
@@ -32801,8 +33257,8 @@
       <c r="E819" t="s">
         <v>1209</v>
       </c>
-      <c r="F819" s="4">
-        <v>34669</v>
+      <c r="F819" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G819" t="s">
         <v>1049</v>
@@ -32841,8 +33297,8 @@
       <c r="E820" t="s">
         <v>1210</v>
       </c>
-      <c r="F820" s="4">
-        <v>30103</v>
+      <c r="F820" s="4" t="s">
+        <v>1457</v>
       </c>
       <c r="G820" t="s">
         <v>1048</v>
@@ -32884,8 +33340,8 @@
       <c r="E821" t="s">
         <v>1211</v>
       </c>
-      <c r="F821" s="4">
-        <v>42856</v>
+      <c r="F821" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="G821" t="s">
         <v>1047</v>
@@ -32924,8 +33380,8 @@
       <c r="E822" t="s">
         <v>1212</v>
       </c>
-      <c r="F822" s="4">
-        <v>44958</v>
+      <c r="F822" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G822" t="s">
         <v>1047</v>
@@ -32967,8 +33423,8 @@
       <c r="E823" t="s">
         <v>1213</v>
       </c>
-      <c r="F823" s="4">
-        <v>44228</v>
+      <c r="F823" s="4" t="s">
+        <v>1459</v>
       </c>
       <c r="G823" t="s">
         <v>1047</v>
@@ -33010,8 +33466,8 @@
       <c r="E824" t="s">
         <v>1186</v>
       </c>
-      <c r="F824" s="4">
-        <v>43070</v>
+      <c r="F824" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G824" t="s">
         <v>1049</v>
@@ -33053,8 +33509,8 @@
       <c r="E825" t="s">
         <v>1186</v>
       </c>
-      <c r="F825" s="4">
-        <v>43070</v>
+      <c r="F825" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G825" t="s">
         <v>1049</v>
@@ -33093,8 +33549,8 @@
       <c r="E826" t="s">
         <v>1109</v>
       </c>
-      <c r="F826" s="4">
-        <v>43709</v>
+      <c r="F826" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G826" t="s">
         <v>1048</v>
@@ -33136,8 +33592,8 @@
       <c r="E827" t="s">
         <v>1214</v>
       </c>
-      <c r="F827" s="4">
-        <v>31321</v>
+      <c r="F827" s="4" t="s">
+        <v>1460</v>
       </c>
       <c r="G827" t="s">
         <v>1048</v>
@@ -33176,8 +33632,8 @@
       <c r="E828" t="s">
         <v>1118</v>
       </c>
-      <c r="F828" s="4">
-        <v>43678</v>
+      <c r="F828" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="G828" t="s">
         <v>1048</v>
@@ -33219,8 +33675,8 @@
       <c r="E829" t="s">
         <v>1087</v>
       </c>
-      <c r="F829" s="4">
-        <v>42552</v>
+      <c r="F829" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G829" t="s">
         <v>1048</v>
@@ -33262,8 +33718,8 @@
       <c r="E830" t="s">
         <v>1215</v>
       </c>
-      <c r="F830" s="4">
-        <v>41456</v>
+      <c r="F830" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="G830" t="s">
         <v>1048</v>
@@ -33305,8 +33761,8 @@
       <c r="E831" t="s">
         <v>1215</v>
       </c>
-      <c r="F831" s="4">
-        <v>41456</v>
+      <c r="F831" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="G831" t="s">
         <v>1048</v>
@@ -33345,8 +33801,8 @@
       <c r="E832" t="s">
         <v>1150</v>
       </c>
-      <c r="F832" s="4">
-        <v>42675</v>
+      <c r="F832" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G832" t="s">
         <v>1049</v>
@@ -33385,8 +33841,8 @@
       <c r="E833" t="s">
         <v>1216</v>
       </c>
-      <c r="F833" s="4">
-        <v>45200</v>
+      <c r="F833" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G833" t="s">
         <v>1047</v>
@@ -33428,8 +33884,8 @@
       <c r="E834" t="s">
         <v>1217</v>
       </c>
-      <c r="F834" s="4">
-        <v>36312</v>
+      <c r="F834" s="4" t="s">
+        <v>1461</v>
       </c>
       <c r="G834" t="s">
         <v>1048</v>
@@ -33511,8 +33967,8 @@
       <c r="E836" t="s">
         <v>1219</v>
       </c>
-      <c r="F836" s="4">
-        <v>34001</v>
+      <c r="F836" s="4" t="s">
+        <v>1462</v>
       </c>
       <c r="G836" t="s">
         <v>1047</v>
@@ -33551,8 +34007,8 @@
       <c r="E837" t="s">
         <v>1219</v>
       </c>
-      <c r="F837" s="4">
-        <v>34001</v>
+      <c r="F837" s="4" t="s">
+        <v>1462</v>
       </c>
       <c r="G837" t="s">
         <v>1047</v>
@@ -33591,8 +34047,8 @@
       <c r="E838" t="s">
         <v>1219</v>
       </c>
-      <c r="F838" s="4">
-        <v>34001</v>
+      <c r="F838" s="4" t="s">
+        <v>1462</v>
       </c>
       <c r="G838" t="s">
         <v>1047</v>
@@ -33634,8 +34090,8 @@
       <c r="E839" t="s">
         <v>1220</v>
       </c>
-      <c r="F839" s="4">
-        <v>44958</v>
+      <c r="F839" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G839" t="s">
         <v>1047</v>
@@ -33674,8 +34130,8 @@
       <c r="E840" t="s">
         <v>1103</v>
       </c>
-      <c r="F840" s="4">
-        <v>36281</v>
+      <c r="F840" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G840" t="s">
         <v>1047</v>
@@ -33717,8 +34173,8 @@
       <c r="E841" t="s">
         <v>1221</v>
       </c>
-      <c r="F841" s="4">
-        <v>41518</v>
+      <c r="F841" s="4" t="s">
+        <v>1463</v>
       </c>
       <c r="G841" t="s">
         <v>1048</v>
@@ -33757,8 +34213,8 @@
       <c r="E842" t="s">
         <v>1128</v>
       </c>
-      <c r="F842" s="4">
-        <v>43070</v>
+      <c r="F842" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G842" t="s">
         <v>1049</v>
@@ -33800,8 +34256,8 @@
       <c r="E843" t="s">
         <v>1222</v>
       </c>
-      <c r="F843" s="4">
-        <v>42552</v>
+      <c r="F843" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G843" t="s">
         <v>1048</v>
@@ -33843,8 +34299,8 @@
       <c r="E844" t="s">
         <v>1222</v>
       </c>
-      <c r="F844" s="4">
-        <v>42552</v>
+      <c r="F844" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G844" t="s">
         <v>1048</v>
@@ -33886,8 +34342,8 @@
       <c r="E845" t="s">
         <v>1222</v>
       </c>
-      <c r="F845" s="4">
-        <v>42552</v>
+      <c r="F845" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G845" t="s">
         <v>1048</v>
@@ -33929,8 +34385,8 @@
       <c r="E846" t="s">
         <v>1223</v>
       </c>
-      <c r="F846" s="4">
-        <v>33147</v>
+      <c r="F846" s="4" t="s">
+        <v>1464</v>
       </c>
       <c r="G846" t="s">
         <v>1048</v>
@@ -33969,8 +34425,8 @@
       <c r="E847" t="s">
         <v>1224</v>
       </c>
-      <c r="F847" s="4">
-        <v>44075</v>
+      <c r="F847" s="4" t="s">
+        <v>1430</v>
       </c>
       <c r="G847" t="s">
         <v>1048</v>
@@ -34012,8 +34468,8 @@
       <c r="E848" t="s">
         <v>1225</v>
       </c>
-      <c r="F848" s="4">
-        <v>45231</v>
+      <c r="F848" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G848" t="s">
         <v>1047</v>
@@ -34052,8 +34508,8 @@
       <c r="E849" t="s">
         <v>1105</v>
       </c>
-      <c r="F849" s="4">
-        <v>32295</v>
+      <c r="F849" s="4" t="s">
+        <v>1397</v>
       </c>
       <c r="G849" t="s">
         <v>1048</v>
@@ -34095,8 +34551,8 @@
       <c r="E850" t="s">
         <v>1226</v>
       </c>
-      <c r="F850" s="4">
-        <v>42370</v>
+      <c r="F850" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G850" t="s">
         <v>1047</v>
@@ -34138,8 +34594,8 @@
       <c r="E851" t="s">
         <v>1226</v>
       </c>
-      <c r="F851" s="4">
-        <v>42370</v>
+      <c r="F851" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G851" t="s">
         <v>1047</v>
@@ -34181,8 +34637,8 @@
       <c r="E852" t="s">
         <v>1226</v>
       </c>
-      <c r="F852" s="4">
-        <v>42370</v>
+      <c r="F852" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G852" t="s">
         <v>1047</v>
@@ -34224,8 +34680,8 @@
       <c r="E853" t="s">
         <v>1226</v>
       </c>
-      <c r="F853" s="4">
-        <v>42370</v>
+      <c r="F853" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G853" t="s">
         <v>1047</v>
@@ -34264,8 +34720,8 @@
       <c r="E854" t="s">
         <v>1227</v>
       </c>
-      <c r="F854" s="4">
-        <v>41548</v>
+      <c r="F854" s="4" t="s">
+        <v>1465</v>
       </c>
       <c r="G854" t="s">
         <v>1048</v>
@@ -34307,8 +34763,8 @@
       <c r="E855" t="s">
         <v>1228</v>
       </c>
-      <c r="F855" s="4">
-        <v>45261</v>
+      <c r="F855" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G855" t="s">
         <v>1049</v>
@@ -34347,8 +34803,8 @@
       <c r="E856" t="s">
         <v>1147</v>
       </c>
-      <c r="F856" s="4">
-        <v>28703</v>
+      <c r="F856" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="G856" t="s">
         <v>1048</v>
@@ -34390,8 +34846,8 @@
       <c r="E857" t="s">
         <v>1157</v>
       </c>
-      <c r="F857" s="4">
-        <v>43435</v>
+      <c r="F857" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G857" t="s">
         <v>1049</v>
@@ -34430,8 +34886,8 @@
       <c r="E858" t="s">
         <v>1163</v>
       </c>
-      <c r="F858" s="4">
-        <v>45078</v>
+      <c r="F858" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G858" t="s">
         <v>1049</v>
@@ -34470,8 +34926,8 @@
       <c r="E859" t="s">
         <v>1163</v>
       </c>
-      <c r="F859" s="4">
-        <v>45078</v>
+      <c r="F859" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G859" t="s">
         <v>1049</v>
@@ -34510,8 +34966,8 @@
       <c r="E860" t="s">
         <v>1163</v>
       </c>
-      <c r="F860" s="4">
-        <v>45078</v>
+      <c r="F860" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G860" t="s">
         <v>1049</v>
@@ -34553,8 +35009,8 @@
       <c r="E861" t="s">
         <v>1229</v>
       </c>
-      <c r="F861" s="4">
-        <v>42736</v>
+      <c r="F861" s="4" t="s">
+        <v>1388</v>
       </c>
       <c r="G861" t="s">
         <v>1047</v>
@@ -34596,8 +35052,8 @@
       <c r="E862" t="s">
         <v>1230</v>
       </c>
-      <c r="F862" s="4">
-        <v>44986</v>
+      <c r="F862" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G862" t="s">
         <v>1048</v>
@@ -34639,8 +35095,8 @@
       <c r="E863" t="s">
         <v>1184</v>
       </c>
-      <c r="F863" s="4">
-        <v>32509</v>
+      <c r="F863" s="4" t="s">
+        <v>1443</v>
       </c>
       <c r="G863" t="s">
         <v>1047</v>
@@ -34679,8 +35135,8 @@
       <c r="E864" t="s">
         <v>1149</v>
       </c>
-      <c r="F864" s="4">
-        <v>43405</v>
+      <c r="F864" s="4" t="s">
+        <v>1426</v>
       </c>
       <c r="G864" t="s">
         <v>1049</v>
@@ -34722,8 +35178,8 @@
       <c r="E865" t="s">
         <v>1185</v>
       </c>
-      <c r="F865" s="4">
-        <v>43922</v>
+      <c r="F865" s="4" t="s">
+        <v>1444</v>
       </c>
       <c r="G865" t="s">
         <v>1047</v>
@@ -34765,8 +35221,8 @@
       <c r="E866" t="s">
         <v>1185</v>
       </c>
-      <c r="F866" s="4">
-        <v>43922</v>
+      <c r="F866" s="4" t="s">
+        <v>1444</v>
       </c>
       <c r="G866" t="s">
         <v>1047</v>
@@ -34808,8 +35264,8 @@
       <c r="E867" t="s">
         <v>1231</v>
       </c>
-      <c r="F867" s="4">
-        <v>45139</v>
+      <c r="F867" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G867" t="s">
         <v>1047</v>
@@ -34848,8 +35304,8 @@
       <c r="E868" t="s">
         <v>1117</v>
       </c>
-      <c r="F868" s="4">
-        <v>44927</v>
+      <c r="F868" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G868" t="s">
         <v>1047</v>
@@ -34891,8 +35347,8 @@
       <c r="E869" t="s">
         <v>1152</v>
       </c>
-      <c r="F869" s="4">
-        <v>44013</v>
+      <c r="F869" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G869" t="s">
         <v>1048</v>
@@ -34934,8 +35390,8 @@
       <c r="E870" t="s">
         <v>1232</v>
       </c>
-      <c r="F870" s="4">
-        <v>45078</v>
+      <c r="F870" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G870" t="s">
         <v>1048</v>
@@ -34977,8 +35433,8 @@
       <c r="E871" t="s">
         <v>1205</v>
       </c>
-      <c r="F871" s="4">
-        <v>34425</v>
+      <c r="F871" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G871" t="s">
         <v>1047</v>
@@ -35020,8 +35476,8 @@
       <c r="E872" t="s">
         <v>1205</v>
       </c>
-      <c r="F872" s="4">
-        <v>34425</v>
+      <c r="F872" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G872" t="s">
         <v>1047</v>
@@ -35063,8 +35519,8 @@
       <c r="E873" t="s">
         <v>1205</v>
       </c>
-      <c r="F873" s="4">
-        <v>34425</v>
+      <c r="F873" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G873" t="s">
         <v>1047</v>
@@ -35103,8 +35559,8 @@
       <c r="E874" t="s">
         <v>1233</v>
       </c>
-      <c r="F874" s="4">
-        <v>44105</v>
+      <c r="F874" s="4" t="s">
+        <v>1437</v>
       </c>
       <c r="G874" t="s">
         <v>1048</v>
@@ -35146,8 +35602,8 @@
       <c r="E875" t="s">
         <v>1234</v>
       </c>
-      <c r="F875" s="4">
-        <v>42186</v>
+      <c r="F875" s="4" t="s">
+        <v>1466</v>
       </c>
       <c r="G875" t="s">
         <v>1048</v>
@@ -35186,8 +35642,8 @@
       <c r="E876" t="s">
         <v>1235</v>
       </c>
-      <c r="F876" s="4">
-        <v>42948</v>
+      <c r="F876" s="4" t="s">
+        <v>1467</v>
       </c>
       <c r="G876" t="s">
         <v>1048</v>
@@ -35226,8 +35682,8 @@
       <c r="E877" t="s">
         <v>1176</v>
       </c>
-      <c r="F877" s="4">
-        <v>36281</v>
+      <c r="F877" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G877" t="s">
         <v>1047</v>
@@ -35269,8 +35725,8 @@
       <c r="E878" t="s">
         <v>1236</v>
       </c>
-      <c r="F878" s="4">
-        <v>43070</v>
+      <c r="F878" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G878" t="s">
         <v>1049</v>
@@ -35312,8 +35768,8 @@
       <c r="E879" t="s">
         <v>1236</v>
       </c>
-      <c r="F879" s="4">
-        <v>43070</v>
+      <c r="F879" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G879" t="s">
         <v>1049</v>
@@ -35355,8 +35811,8 @@
       <c r="E880" t="s">
         <v>1236</v>
       </c>
-      <c r="F880" s="4">
-        <v>43070</v>
+      <c r="F880" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G880" t="s">
         <v>1049</v>
@@ -35395,8 +35851,8 @@
       <c r="E881" t="s">
         <v>1237</v>
       </c>
-      <c r="F881" s="4">
-        <v>45200</v>
+      <c r="F881" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G881" t="s">
         <v>1047</v>
@@ -35438,8 +35894,8 @@
       <c r="E882" t="s">
         <v>1195</v>
       </c>
-      <c r="F882" s="4">
-        <v>45170</v>
+      <c r="F882" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G882" t="s">
         <v>1047</v>
@@ -35481,8 +35937,8 @@
       <c r="E883" t="s">
         <v>1238</v>
       </c>
-      <c r="F883" s="4">
-        <v>43221</v>
+      <c r="F883" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G883" t="s">
         <v>1047</v>
@@ -35521,8 +35977,8 @@
       <c r="E884" t="s">
         <v>1239</v>
       </c>
-      <c r="F884" s="4">
-        <v>44256</v>
+      <c r="F884" s="4" t="s">
+        <v>1404</v>
       </c>
       <c r="G884" t="s">
         <v>1047</v>
@@ -35564,8 +36020,8 @@
       <c r="E885" t="s">
         <v>1240</v>
       </c>
-      <c r="F885" s="4">
-        <v>44927</v>
+      <c r="F885" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G885" t="s">
         <v>1047</v>
@@ -35607,8 +36063,8 @@
       <c r="E886" t="s">
         <v>1240</v>
       </c>
-      <c r="F886" s="4">
-        <v>44927</v>
+      <c r="F886" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G886" t="s">
         <v>1047</v>
@@ -35650,8 +36106,8 @@
       <c r="E887" t="s">
         <v>1240</v>
       </c>
-      <c r="F887" s="4">
-        <v>44927</v>
+      <c r="F887" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G887" t="s">
         <v>1047</v>
@@ -35690,8 +36146,8 @@
       <c r="E888" t="s">
         <v>1241</v>
       </c>
-      <c r="F888" s="4">
-        <v>45261</v>
+      <c r="F888" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G888" t="s">
         <v>1048</v>
@@ -35733,8 +36189,8 @@
       <c r="E889" t="s">
         <v>1104</v>
       </c>
-      <c r="F889" s="4">
-        <v>31291</v>
+      <c r="F889" s="4" t="s">
+        <v>1396</v>
       </c>
       <c r="G889" t="s">
         <v>1048</v>
@@ -35773,8 +36229,8 @@
       <c r="E890" t="s">
         <v>1101</v>
       </c>
-      <c r="F890" s="4">
-        <v>44044</v>
+      <c r="F890" s="4" t="s">
+        <v>1393</v>
       </c>
       <c r="G890" t="s">
         <v>1048</v>
@@ -35813,8 +36269,8 @@
       <c r="E891" t="s">
         <v>1242</v>
       </c>
-      <c r="F891" s="4">
-        <v>35339</v>
+      <c r="F891" s="4" t="s">
+        <v>1468</v>
       </c>
       <c r="G891" t="s">
         <v>1048</v>
@@ -35856,8 +36312,8 @@
       <c r="E892" t="s">
         <v>1243</v>
       </c>
-      <c r="F892" s="4">
-        <v>43556</v>
+      <c r="F892" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G892" t="s">
         <v>1047</v>
@@ -35899,8 +36355,8 @@
       <c r="E893" t="s">
         <v>1243</v>
       </c>
-      <c r="F893" s="4">
-        <v>43556</v>
+      <c r="F893" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G893" t="s">
         <v>1047</v>
@@ -35939,8 +36395,8 @@
       <c r="E894" t="s">
         <v>1095</v>
       </c>
-      <c r="F894" s="4">
-        <v>45139</v>
+      <c r="F894" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G894" t="s">
         <v>1049</v>
@@ -35979,8 +36435,8 @@
       <c r="E895" t="s">
         <v>1105</v>
       </c>
-      <c r="F895" s="4">
-        <v>32295</v>
+      <c r="F895" s="4" t="s">
+        <v>1397</v>
       </c>
       <c r="G895" t="s">
         <v>1048</v>
@@ -36019,8 +36475,8 @@
       <c r="E896" t="s">
         <v>1244</v>
       </c>
-      <c r="F896" s="4">
-        <v>41579</v>
+      <c r="F896" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G896" t="s">
         <v>1049</v>
@@ -36062,8 +36518,8 @@
       <c r="E897" t="s">
         <v>1245</v>
       </c>
-      <c r="F897" s="4">
-        <v>45261</v>
+      <c r="F897" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G897" t="s">
         <v>1048</v>
@@ -36105,8 +36561,8 @@
       <c r="E898" t="s">
         <v>1148</v>
       </c>
-      <c r="F898" s="4">
-        <v>45047</v>
+      <c r="F898" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G898" t="s">
         <v>1048</v>
@@ -36148,8 +36604,8 @@
       <c r="E899" t="s">
         <v>1148</v>
       </c>
-      <c r="F899" s="4">
-        <v>45047</v>
+      <c r="F899" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G899" t="s">
         <v>1048</v>
@@ -36191,8 +36647,8 @@
       <c r="E900" t="s">
         <v>1148</v>
       </c>
-      <c r="F900" s="4">
-        <v>45047</v>
+      <c r="F900" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G900" t="s">
         <v>1048</v>
@@ -36234,8 +36690,8 @@
       <c r="E901" t="s">
         <v>1148</v>
       </c>
-      <c r="F901" s="4">
-        <v>45047</v>
+      <c r="F901" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G901" t="s">
         <v>1048</v>
@@ -36277,8 +36733,8 @@
       <c r="E902" t="s">
         <v>1246</v>
       </c>
-      <c r="F902" s="4">
-        <v>44958</v>
+      <c r="F902" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G902" t="s">
         <v>1048</v>
@@ -36317,8 +36773,8 @@
       <c r="E903" t="s">
         <v>1247</v>
       </c>
-      <c r="F903" s="4">
-        <v>41395</v>
+      <c r="F903" s="4" t="s">
+        <v>1469</v>
       </c>
       <c r="G903" t="s">
         <v>1047</v>
@@ -36360,8 +36816,8 @@
       <c r="E904" t="s">
         <v>1147</v>
       </c>
-      <c r="F904" s="4">
-        <v>28703</v>
+      <c r="F904" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="G904" t="s">
         <v>1048</v>
@@ -36403,8 +36859,8 @@
       <c r="E905" t="s">
         <v>1085</v>
       </c>
-      <c r="F905" s="4">
-        <v>43344</v>
+      <c r="F905" s="4" t="s">
+        <v>1382</v>
       </c>
       <c r="G905" t="s">
         <v>1048</v>
@@ -36443,8 +36899,8 @@
       <c r="E906" t="s">
         <v>1078</v>
       </c>
-      <c r="F906" s="4">
-        <v>43983</v>
+      <c r="F906" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G906" t="s">
         <v>1048</v>
@@ -36483,8 +36939,8 @@
       <c r="E907" t="s">
         <v>1078</v>
       </c>
-      <c r="F907" s="4">
-        <v>43983</v>
+      <c r="F907" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G907" t="s">
         <v>1048</v>
@@ -36523,8 +36979,8 @@
       <c r="E908" t="s">
         <v>1136</v>
       </c>
-      <c r="F908" s="4">
-        <v>45017</v>
+      <c r="F908" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G908" t="s">
         <v>1047</v>
@@ -36563,8 +37019,8 @@
       <c r="E909" t="s">
         <v>1248</v>
       </c>
-      <c r="F909" s="4">
-        <v>33878</v>
+      <c r="F909" s="4" t="s">
+        <v>1470</v>
       </c>
       <c r="G909" t="s">
         <v>1048</v>
@@ -36603,8 +37059,8 @@
       <c r="E910" t="s">
         <v>1249</v>
       </c>
-      <c r="F910" s="4">
-        <v>45170</v>
+      <c r="F910" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G910" t="s">
         <v>1048</v>
@@ -36646,8 +37102,8 @@
       <c r="E911" t="s">
         <v>1151</v>
       </c>
-      <c r="F911" s="4">
-        <v>45261</v>
+      <c r="F911" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G911" t="s">
         <v>1047</v>
@@ -36686,8 +37142,8 @@
       <c r="E912" t="s">
         <v>1234</v>
       </c>
-      <c r="F912" s="4">
-        <v>42186</v>
+      <c r="F912" s="4" t="s">
+        <v>1466</v>
       </c>
       <c r="G912" t="s">
         <v>1048</v>
@@ -36726,8 +37182,8 @@
       <c r="E913" t="s">
         <v>1234</v>
       </c>
-      <c r="F913" s="4">
-        <v>42186</v>
+      <c r="F913" s="4" t="s">
+        <v>1466</v>
       </c>
       <c r="G913" t="s">
         <v>1048</v>
@@ -36766,8 +37222,8 @@
       <c r="E914" t="s">
         <v>1250</v>
       </c>
-      <c r="F914" s="4">
-        <v>43739</v>
+      <c r="F914" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G914" t="s">
         <v>1048</v>
@@ -36809,8 +37265,8 @@
       <c r="E915" t="s">
         <v>1134</v>
       </c>
-      <c r="F915" s="4">
-        <v>36130</v>
+      <c r="F915" s="4" t="s">
+        <v>1416</v>
       </c>
       <c r="G915" t="s">
         <v>1049</v>
@@ -36849,8 +37305,8 @@
       <c r="E916" t="s">
         <v>1251</v>
       </c>
-      <c r="F916" s="4">
-        <v>43739</v>
+      <c r="F916" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G916" t="s">
         <v>1048</v>
@@ -36889,8 +37345,8 @@
       <c r="E917" t="s">
         <v>1156</v>
       </c>
-      <c r="F917" s="4">
-        <v>44927</v>
+      <c r="F917" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G917" t="s">
         <v>1047</v>
@@ -36929,8 +37385,8 @@
       <c r="E918" t="s">
         <v>1252</v>
       </c>
-      <c r="F918" s="4">
-        <v>33573</v>
+      <c r="F918" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="G918" t="s">
         <v>1049</v>
@@ -36969,8 +37425,8 @@
       <c r="E919" t="s">
         <v>1252</v>
       </c>
-      <c r="F919" s="4">
-        <v>33573</v>
+      <c r="F919" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="G919" t="s">
         <v>1049</v>
@@ -37009,8 +37465,8 @@
       <c r="E920" t="s">
         <v>1252</v>
       </c>
-      <c r="F920" s="4">
-        <v>33573</v>
+      <c r="F920" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="G920" t="s">
         <v>1049</v>
@@ -37049,8 +37505,8 @@
       <c r="E921" t="s">
         <v>1252</v>
       </c>
-      <c r="F921" s="4">
-        <v>33573</v>
+      <c r="F921" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="G921" t="s">
         <v>1049</v>
@@ -37089,8 +37545,8 @@
       <c r="E922" t="s">
         <v>1252</v>
       </c>
-      <c r="F922" s="4">
-        <v>33573</v>
+      <c r="F922" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="G922" t="s">
         <v>1049</v>
@@ -37132,8 +37588,8 @@
       <c r="E923" t="s">
         <v>1253</v>
       </c>
-      <c r="F923" s="4">
-        <v>44958</v>
+      <c r="F923" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G923" t="s">
         <v>1049</v>
@@ -37172,8 +37628,8 @@
       <c r="E924" t="s">
         <v>1110</v>
       </c>
-      <c r="F924" s="4">
-        <v>42125</v>
+      <c r="F924" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G924" t="s">
         <v>1047</v>
@@ -37212,8 +37668,8 @@
       <c r="E925" t="s">
         <v>1241</v>
       </c>
-      <c r="F925" s="4">
-        <v>45261</v>
+      <c r="F925" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G925" t="s">
         <v>1048</v>
@@ -37255,8 +37711,8 @@
       <c r="E926" t="s">
         <v>1122</v>
       </c>
-      <c r="F926" s="4">
-        <v>43983</v>
+      <c r="F926" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G926" t="s">
         <v>1048</v>
@@ -37295,8 +37751,8 @@
       <c r="E927" t="s">
         <v>1103</v>
       </c>
-      <c r="F927" s="4">
-        <v>36281</v>
+      <c r="F927" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G927" t="s">
         <v>1047</v>
@@ -37335,8 +37791,8 @@
       <c r="E928" t="s">
         <v>1103</v>
       </c>
-      <c r="F928" s="4">
-        <v>36281</v>
+      <c r="F928" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G928" t="s">
         <v>1047</v>
@@ -37375,8 +37831,8 @@
       <c r="E929" t="s">
         <v>1103</v>
       </c>
-      <c r="F929" s="4">
-        <v>36281</v>
+      <c r="F929" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G929" t="s">
         <v>1047</v>
@@ -37415,8 +37871,8 @@
       <c r="E930" t="s">
         <v>1240</v>
       </c>
-      <c r="F930" s="4">
-        <v>44927</v>
+      <c r="F930" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G930" t="s">
         <v>1047</v>
@@ -37458,8 +37914,8 @@
       <c r="E931" t="s">
         <v>1254</v>
       </c>
-      <c r="F931" s="4">
-        <v>36251</v>
+      <c r="F931" s="4" t="s">
+        <v>1472</v>
       </c>
       <c r="G931" t="s">
         <v>1047</v>
@@ -37498,8 +37954,8 @@
       <c r="E932" t="s">
         <v>1209</v>
       </c>
-      <c r="F932" s="4">
-        <v>34669</v>
+      <c r="F932" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="G932" t="s">
         <v>1049</v>
@@ -37541,8 +37997,8 @@
       <c r="E933" t="s">
         <v>1217</v>
       </c>
-      <c r="F933" s="4">
-        <v>36312</v>
+      <c r="F933" s="4" t="s">
+        <v>1461</v>
       </c>
       <c r="G933" t="s">
         <v>1048</v>
@@ -37584,8 +38040,8 @@
       <c r="E934" t="s">
         <v>1161</v>
       </c>
-      <c r="F934" s="4">
-        <v>43221</v>
+      <c r="F934" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G934" t="s">
         <v>1047</v>
@@ -37627,8 +38083,8 @@
       <c r="E935" t="s">
         <v>1161</v>
       </c>
-      <c r="F935" s="4">
-        <v>43221</v>
+      <c r="F935" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G935" t="s">
         <v>1047</v>
@@ -37667,8 +38123,8 @@
       <c r="E936" t="s">
         <v>1160</v>
       </c>
-      <c r="F936" s="4">
-        <v>43831</v>
+      <c r="F936" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="G936" t="s">
         <v>1047</v>
@@ -37707,8 +38163,8 @@
       <c r="E937" t="s">
         <v>1255</v>
       </c>
-      <c r="F937" s="4">
-        <v>45139</v>
+      <c r="F937" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G937" t="s">
         <v>1048</v>
@@ -37747,8 +38203,8 @@
       <c r="E938" t="s">
         <v>1130</v>
       </c>
-      <c r="F938" s="4">
-        <v>44927</v>
+      <c r="F938" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G938" t="s">
         <v>1048</v>
@@ -37790,8 +38246,8 @@
       <c r="E939" t="s">
         <v>1256</v>
       </c>
-      <c r="F939" s="4">
-        <v>42675</v>
+      <c r="F939" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G939" t="s">
         <v>1049</v>
@@ -37833,8 +38289,8 @@
       <c r="E940" t="s">
         <v>1161</v>
       </c>
-      <c r="F940" s="4">
-        <v>43221</v>
+      <c r="F940" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G940" t="s">
         <v>1047</v>
@@ -37876,8 +38332,8 @@
       <c r="E941" t="s">
         <v>1161</v>
       </c>
-      <c r="F941" s="4">
-        <v>43221</v>
+      <c r="F941" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G941" t="s">
         <v>1047</v>
@@ -37919,8 +38375,8 @@
       <c r="E942" t="s">
         <v>1161</v>
       </c>
-      <c r="F942" s="4">
-        <v>43221</v>
+      <c r="F942" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G942" t="s">
         <v>1047</v>
@@ -37962,8 +38418,8 @@
       <c r="E943" t="s">
         <v>1217</v>
       </c>
-      <c r="F943" s="4">
-        <v>36312</v>
+      <c r="F943" s="4" t="s">
+        <v>1461</v>
       </c>
       <c r="G943" t="s">
         <v>1048</v>
@@ -38002,8 +38458,8 @@
       <c r="E944" t="s">
         <v>1257</v>
       </c>
-      <c r="F944" s="4">
-        <v>45170</v>
+      <c r="F944" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G944" t="s">
         <v>1048</v>
@@ -38042,8 +38498,8 @@
       <c r="E945" t="s">
         <v>1145</v>
       </c>
-      <c r="F945" s="4">
-        <v>45047</v>
+      <c r="F945" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G945" t="s">
         <v>1047</v>
@@ -38085,8 +38541,8 @@
       <c r="E946" t="s">
         <v>1258</v>
       </c>
-      <c r="F946" s="4">
-        <v>44075</v>
+      <c r="F946" s="4" t="s">
+        <v>1430</v>
       </c>
       <c r="G946" t="s">
         <v>1048</v>
@@ -38125,8 +38581,8 @@
       <c r="E947" t="s">
         <v>1259</v>
       </c>
-      <c r="F947" s="4">
-        <v>43556</v>
+      <c r="F947" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G947" t="s">
         <v>1047</v>
@@ -38165,8 +38621,8 @@
       <c r="E948" t="s">
         <v>1259</v>
       </c>
-      <c r="F948" s="4">
-        <v>43556</v>
+      <c r="F948" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G948" t="s">
         <v>1047</v>
@@ -38205,8 +38661,8 @@
       <c r="E949" t="s">
         <v>1260</v>
       </c>
-      <c r="F949" s="4">
-        <v>45047</v>
+      <c r="F949" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G949" t="s">
         <v>1048</v>
@@ -38248,8 +38704,8 @@
       <c r="E950" t="s">
         <v>1261</v>
       </c>
-      <c r="F950" s="4">
-        <v>35217</v>
+      <c r="F950" s="4" t="s">
+        <v>1473</v>
       </c>
       <c r="G950" t="s">
         <v>1048</v>
@@ -38288,8 +38744,8 @@
       <c r="E951" t="s">
         <v>1177</v>
       </c>
-      <c r="F951" s="4">
-        <v>35674</v>
+      <c r="F951" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G951" t="s">
         <v>1048</v>
@@ -38371,8 +38827,8 @@
       <c r="E953" t="s">
         <v>1263</v>
       </c>
-      <c r="F953" s="4">
-        <v>42125</v>
+      <c r="F953" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G953" t="s">
         <v>1047</v>
@@ -38411,8 +38867,8 @@
       <c r="E954" t="s">
         <v>1263</v>
       </c>
-      <c r="F954" s="4">
-        <v>42125</v>
+      <c r="F954" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G954" t="s">
         <v>1047</v>
@@ -38451,8 +38907,8 @@
       <c r="E955" t="s">
         <v>1263</v>
       </c>
-      <c r="F955" s="4">
-        <v>42125</v>
+      <c r="F955" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G955" t="s">
         <v>1047</v>
@@ -38491,8 +38947,8 @@
       <c r="E956" t="s">
         <v>1263</v>
       </c>
-      <c r="F956" s="4">
-        <v>42125</v>
+      <c r="F956" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G956" t="s">
         <v>1047</v>
@@ -38531,8 +38987,8 @@
       <c r="E957" t="s">
         <v>1263</v>
       </c>
-      <c r="F957" s="4">
-        <v>42125</v>
+      <c r="F957" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G957" t="s">
         <v>1047</v>
@@ -38571,8 +39027,8 @@
       <c r="E958" t="s">
         <v>1264</v>
       </c>
-      <c r="F958" s="4">
-        <v>44986</v>
+      <c r="F958" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G958" t="s">
         <v>1047</v>
@@ -38614,8 +39070,8 @@
       <c r="E959" t="s">
         <v>1134</v>
       </c>
-      <c r="F959" s="4">
-        <v>36130</v>
+      <c r="F959" s="4" t="s">
+        <v>1416</v>
       </c>
       <c r="G959" t="s">
         <v>1049</v>
@@ -38654,8 +39110,8 @@
       <c r="E960" t="s">
         <v>1265</v>
       </c>
-      <c r="F960" s="4">
-        <v>41913</v>
+      <c r="F960" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G960" t="s">
         <v>1048</v>
@@ -38697,8 +39153,8 @@
       <c r="E961" t="s">
         <v>1266</v>
       </c>
-      <c r="F961" s="4">
-        <v>43101</v>
+      <c r="F961" s="4" t="s">
+        <v>1448</v>
       </c>
       <c r="G961" t="s">
         <v>1047</v>
@@ -38737,8 +39193,8 @@
       <c r="E962" t="s">
         <v>1267</v>
       </c>
-      <c r="F962" s="4">
-        <v>35309</v>
+      <c r="F962" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="G962" t="s">
         <v>1048</v>
@@ -38777,8 +39233,8 @@
       <c r="E963" t="s">
         <v>1267</v>
       </c>
-      <c r="F963" s="4">
-        <v>35309</v>
+      <c r="F963" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="G963" t="s">
         <v>1048</v>
@@ -38817,8 +39273,8 @@
       <c r="E964" t="s">
         <v>1267</v>
       </c>
-      <c r="F964" s="4">
-        <v>35309</v>
+      <c r="F964" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="G964" t="s">
         <v>1048</v>
@@ -38857,8 +39313,8 @@
       <c r="E965" t="s">
         <v>1268</v>
       </c>
-      <c r="F965" s="4">
-        <v>45261</v>
+      <c r="F965" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G965" t="s">
         <v>1049</v>
@@ -38900,8 +39356,8 @@
       <c r="E966" t="s">
         <v>1120</v>
       </c>
-      <c r="F966" s="4">
-        <v>43739</v>
+      <c r="F966" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="G966" t="s">
         <v>1048</v>
@@ -38943,8 +39399,8 @@
       <c r="E967" t="s">
         <v>1102</v>
       </c>
-      <c r="F967" s="4">
-        <v>34394</v>
+      <c r="F967" s="4" t="s">
+        <v>1394</v>
       </c>
       <c r="G967" t="s">
         <v>1047</v>
@@ -38986,8 +39442,8 @@
       <c r="E968" t="s">
         <v>1230</v>
       </c>
-      <c r="F968" s="4">
-        <v>44986</v>
+      <c r="F968" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G968" t="s">
         <v>1048</v>
@@ -39026,8 +39482,8 @@
       <c r="E969" t="s">
         <v>1200</v>
       </c>
-      <c r="F969" s="4">
-        <v>42309</v>
+      <c r="F969" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G969" t="s">
         <v>1049</v>
@@ -39066,8 +39522,8 @@
       <c r="E970" t="s">
         <v>1200</v>
       </c>
-      <c r="F970" s="4">
-        <v>42309</v>
+      <c r="F970" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G970" t="s">
         <v>1049</v>
@@ -39106,8 +39562,8 @@
       <c r="E971" t="s">
         <v>1097</v>
       </c>
-      <c r="F971" s="4">
-        <v>43709</v>
+      <c r="F971" s="4" t="s">
+        <v>1361</v>
       </c>
       <c r="G971" t="s">
         <v>1048</v>
@@ -39149,8 +39605,8 @@
       <c r="E972" t="s">
         <v>1171</v>
       </c>
-      <c r="F972" s="4">
-        <v>41334</v>
+      <c r="F972" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="G972" t="s">
         <v>1047</v>
@@ -39189,8 +39645,8 @@
       <c r="E973" t="s">
         <v>1213</v>
       </c>
-      <c r="F973" s="4">
-        <v>44228</v>
+      <c r="F973" s="4" t="s">
+        <v>1459</v>
       </c>
       <c r="G973" t="s">
         <v>1047</v>
@@ -39232,8 +39688,8 @@
       <c r="E974" t="s">
         <v>1080</v>
       </c>
-      <c r="F974" s="4">
-        <v>32143</v>
+      <c r="F974" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="G974" t="s">
         <v>1047</v>
@@ -39272,8 +39728,8 @@
       <c r="E975" t="s">
         <v>1207</v>
       </c>
-      <c r="F975" s="4">
-        <v>33329</v>
+      <c r="F975" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G975" t="s">
         <v>1047</v>
@@ -39312,8 +39768,8 @@
       <c r="E976" t="s">
         <v>1207</v>
       </c>
-      <c r="F976" s="4">
-        <v>33329</v>
+      <c r="F976" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G976" t="s">
         <v>1047</v>
@@ -39352,8 +39808,8 @@
       <c r="E977" t="s">
         <v>1079</v>
       </c>
-      <c r="F977" s="4">
-        <v>45108</v>
+      <c r="F977" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="G977" t="s">
         <v>1047</v>
@@ -39392,8 +39848,8 @@
       <c r="E978" t="s">
         <v>1125</v>
       </c>
-      <c r="F978" s="4">
-        <v>43800</v>
+      <c r="F978" s="4" t="s">
+        <v>1408</v>
       </c>
       <c r="G978" t="s">
         <v>1049</v>
@@ -39435,8 +39891,8 @@
       <c r="E979" t="s">
         <v>1269</v>
       </c>
-      <c r="F979" s="4">
-        <v>42125</v>
+      <c r="F979" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G979" t="s">
         <v>1047</v>
@@ -39475,8 +39931,8 @@
       <c r="E980" t="s">
         <v>1270</v>
       </c>
-      <c r="F980" s="4">
-        <v>45231</v>
+      <c r="F980" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G980" t="s">
         <v>1047</v>
@@ -39518,8 +39974,8 @@
       <c r="E981" t="s">
         <v>1271</v>
       </c>
-      <c r="F981" s="4">
-        <v>42795</v>
+      <c r="F981" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G981" t="s">
         <v>1047</v>
@@ -39561,8 +40017,8 @@
       <c r="E982" t="s">
         <v>1271</v>
       </c>
-      <c r="F982" s="4">
-        <v>42795</v>
+      <c r="F982" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G982" t="s">
         <v>1047</v>
@@ -39604,8 +40060,8 @@
       <c r="E983" t="s">
         <v>1271</v>
       </c>
-      <c r="F983" s="4">
-        <v>42795</v>
+      <c r="F983" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G983" t="s">
         <v>1047</v>
@@ -39647,8 +40103,8 @@
       <c r="E984" t="s">
         <v>1271</v>
       </c>
-      <c r="F984" s="4">
-        <v>42795</v>
+      <c r="F984" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G984" t="s">
         <v>1047</v>
@@ -39690,8 +40146,8 @@
       <c r="E985" t="s">
         <v>1271</v>
       </c>
-      <c r="F985" s="4">
-        <v>42795</v>
+      <c r="F985" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G985" t="s">
         <v>1047</v>
@@ -39733,8 +40189,8 @@
       <c r="E986" t="s">
         <v>1271</v>
       </c>
-      <c r="F986" s="4">
-        <v>42795</v>
+      <c r="F986" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G986" t="s">
         <v>1047</v>
@@ -39776,8 +40232,8 @@
       <c r="E987" t="s">
         <v>1271</v>
       </c>
-      <c r="F987" s="4">
-        <v>42795</v>
+      <c r="F987" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G987" t="s">
         <v>1047</v>
@@ -39816,8 +40272,8 @@
       <c r="E988" t="s">
         <v>1121</v>
       </c>
-      <c r="F988" s="4">
-        <v>45261</v>
+      <c r="F988" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G988" t="s">
         <v>1048</v>
@@ -39856,8 +40312,8 @@
       <c r="E989" t="s">
         <v>1272</v>
       </c>
-      <c r="F989" s="4">
-        <v>45017</v>
+      <c r="F989" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G989" t="s">
         <v>1048</v>
@@ -39896,8 +40352,8 @@
       <c r="E990" t="s">
         <v>1273</v>
       </c>
-      <c r="F990" s="4">
-        <v>43221</v>
+      <c r="F990" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="G990" t="s">
         <v>1047</v>
@@ -39939,8 +40395,8 @@
       <c r="E991" t="s">
         <v>1274</v>
       </c>
-      <c r="F991" s="4">
-        <v>41944</v>
+      <c r="F991" s="4" t="s">
+        <v>1414</v>
       </c>
       <c r="G991" t="s">
         <v>1049</v>
@@ -39979,8 +40435,8 @@
       <c r="E992" t="s">
         <v>1275</v>
       </c>
-      <c r="F992" s="4">
-        <v>42583</v>
+      <c r="F992" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="G992" t="s">
         <v>1048</v>
@@ -40019,8 +40475,8 @@
       <c r="E993" t="s">
         <v>1275</v>
       </c>
-      <c r="F993" s="4">
-        <v>42583</v>
+      <c r="F993" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="G993" t="s">
         <v>1048</v>
@@ -40059,8 +40515,8 @@
       <c r="E994" t="s">
         <v>1275</v>
       </c>
-      <c r="F994" s="4">
-        <v>42583</v>
+      <c r="F994" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="G994" t="s">
         <v>1048</v>
@@ -40099,8 +40555,8 @@
       <c r="E995" t="s">
         <v>1275</v>
       </c>
-      <c r="F995" s="4">
-        <v>42583</v>
+      <c r="F995" s="4" t="s">
+        <v>1434</v>
       </c>
       <c r="G995" t="s">
         <v>1048</v>
@@ -40142,8 +40598,8 @@
       <c r="E996" t="s">
         <v>1276</v>
       </c>
-      <c r="F996" s="4">
-        <v>44986</v>
+      <c r="F996" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G996" t="s">
         <v>1047</v>
@@ -40182,8 +40638,8 @@
       <c r="E997" t="s">
         <v>1239</v>
       </c>
-      <c r="F997" s="4">
-        <v>44256</v>
+      <c r="F997" s="4" t="s">
+        <v>1404</v>
       </c>
       <c r="G997" t="s">
         <v>1047</v>
@@ -40222,8 +40678,8 @@
       <c r="E998" t="s">
         <v>1277</v>
       </c>
-      <c r="F998" s="4">
-        <v>42887</v>
+      <c r="F998" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="G998" t="s">
         <v>1048</v>
@@ -40265,8 +40721,8 @@
       <c r="E999" t="s">
         <v>1278</v>
       </c>
-      <c r="F999" s="4">
-        <v>45261</v>
+      <c r="F999" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G999" t="s">
         <v>1048</v>
@@ -40305,8 +40761,8 @@
       <c r="E1000" t="s">
         <v>1137</v>
       </c>
-      <c r="F1000" s="4">
-        <v>42005</v>
+      <c r="F1000" s="4" t="s">
+        <v>1418</v>
       </c>
       <c r="G1000" t="s">
         <v>1047</v>
@@ -40345,8 +40801,8 @@
       <c r="E1001" t="s">
         <v>1137</v>
       </c>
-      <c r="F1001" s="4">
-        <v>42005</v>
+      <c r="F1001" s="4" t="s">
+        <v>1418</v>
       </c>
       <c r="G1001" t="s">
         <v>1047</v>
@@ -40388,8 +40844,8 @@
       <c r="E1002" t="s">
         <v>1279</v>
       </c>
-      <c r="F1002" s="4">
-        <v>42036</v>
+      <c r="F1002" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="G1002" t="s">
         <v>1047</v>
@@ -40428,8 +40884,8 @@
       <c r="E1003" t="s">
         <v>1248</v>
       </c>
-      <c r="F1003" s="4">
-        <v>33878</v>
+      <c r="F1003" s="4" t="s">
+        <v>1470</v>
       </c>
       <c r="G1003" t="s">
         <v>1048</v>
@@ -40471,8 +40927,8 @@
       <c r="E1004" t="s">
         <v>1280</v>
       </c>
-      <c r="F1004" s="4">
-        <v>42552</v>
+      <c r="F1004" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G1004" t="s">
         <v>1048</v>
@@ -40511,8 +40967,8 @@
       <c r="E1005" t="s">
         <v>1225</v>
       </c>
-      <c r="F1005" s="4">
-        <v>45231</v>
+      <c r="F1005" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G1005" t="s">
         <v>1047</v>
@@ -40551,8 +41007,8 @@
       <c r="E1006" t="s">
         <v>1074</v>
       </c>
-      <c r="F1006" s="4">
-        <v>31017</v>
+      <c r="F1006" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G1006" t="s">
         <v>1049</v>
@@ -40591,8 +41047,8 @@
       <c r="E1007" t="s">
         <v>1074</v>
       </c>
-      <c r="F1007" s="4">
-        <v>31017</v>
+      <c r="F1007" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G1007" t="s">
         <v>1049</v>
@@ -40631,8 +41087,8 @@
       <c r="E1008" t="s">
         <v>1074</v>
       </c>
-      <c r="F1008" s="4">
-        <v>31017</v>
+      <c r="F1008" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G1008" t="s">
         <v>1049</v>
@@ -40674,8 +41130,8 @@
       <c r="E1009" t="s">
         <v>1157</v>
       </c>
-      <c r="F1009" s="4">
-        <v>43435</v>
+      <c r="F1009" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G1009" t="s">
         <v>1049</v>
@@ -40714,8 +41170,8 @@
       <c r="E1010" t="s">
         <v>1117</v>
       </c>
-      <c r="F1010" s="4">
-        <v>44927</v>
+      <c r="F1010" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G1010" t="s">
         <v>1047</v>
@@ -40757,8 +41213,8 @@
       <c r="E1011" t="s">
         <v>1281</v>
       </c>
-      <c r="F1011" s="4">
-        <v>34151</v>
+      <c r="F1011" s="4" t="s">
+        <v>1477</v>
       </c>
       <c r="G1011" t="s">
         <v>1048</v>
@@ -40797,8 +41253,8 @@
       <c r="E1012" t="s">
         <v>1282</v>
       </c>
-      <c r="F1012" s="4">
-        <v>44166</v>
+      <c r="F1012" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1012" t="s">
         <v>1049</v>
@@ -40840,8 +41296,8 @@
       <c r="E1013" t="s">
         <v>1282</v>
       </c>
-      <c r="F1013" s="4">
-        <v>44166</v>
+      <c r="F1013" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1013" t="s">
         <v>1049</v>
@@ -40883,8 +41339,8 @@
       <c r="E1014" t="s">
         <v>1282</v>
       </c>
-      <c r="F1014" s="4">
-        <v>44166</v>
+      <c r="F1014" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1014" t="s">
         <v>1049</v>
@@ -40926,8 +41382,8 @@
       <c r="E1015" t="s">
         <v>1282</v>
       </c>
-      <c r="F1015" s="4">
-        <v>44166</v>
+      <c r="F1015" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1015" t="s">
         <v>1049</v>
@@ -40966,8 +41422,8 @@
       <c r="E1016" t="s">
         <v>1276</v>
       </c>
-      <c r="F1016" s="4">
-        <v>44986</v>
+      <c r="F1016" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G1016" t="s">
         <v>1047</v>
@@ -41009,8 +41465,8 @@
       <c r="E1017" t="s">
         <v>1283</v>
       </c>
-      <c r="F1017" s="4">
-        <v>43678</v>
+      <c r="F1017" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="G1017" t="s">
         <v>1048</v>
@@ -41049,8 +41505,8 @@
       <c r="E1018" t="s">
         <v>1284</v>
       </c>
-      <c r="F1018" s="4">
-        <v>41579</v>
+      <c r="F1018" s="4" t="s">
+        <v>1384</v>
       </c>
       <c r="G1018" t="s">
         <v>1049</v>
@@ -41089,8 +41545,8 @@
       <c r="E1019" t="s">
         <v>1285</v>
       </c>
-      <c r="F1019" s="4">
-        <v>42430</v>
+      <c r="F1019" s="4" t="s">
+        <v>1479</v>
       </c>
       <c r="G1019" t="s">
         <v>1047</v>
@@ -41132,8 +41588,8 @@
       <c r="E1020" t="s">
         <v>1286</v>
       </c>
-      <c r="F1020" s="4">
-        <v>41609</v>
+      <c r="F1020" s="4" t="s">
+        <v>1480</v>
       </c>
       <c r="G1020" t="s">
         <v>1049</v>
@@ -41175,8 +41631,8 @@
       <c r="E1021" t="s">
         <v>1286</v>
       </c>
-      <c r="F1021" s="4">
-        <v>41609</v>
+      <c r="F1021" s="4" t="s">
+        <v>1480</v>
       </c>
       <c r="G1021" t="s">
         <v>1049</v>
@@ -41215,8 +41671,8 @@
       <c r="E1022" t="s">
         <v>1169</v>
       </c>
-      <c r="F1022" s="4">
-        <v>42370</v>
+      <c r="F1022" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G1022" t="s">
         <v>1047</v>
@@ -41255,8 +41711,8 @@
       <c r="E1023" t="s">
         <v>1279</v>
       </c>
-      <c r="F1023" s="4">
-        <v>42036</v>
+      <c r="F1023" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="G1023" t="s">
         <v>1047</v>
@@ -41298,8 +41754,8 @@
       <c r="E1024" t="s">
         <v>1225</v>
       </c>
-      <c r="F1024" s="4">
-        <v>45231</v>
+      <c r="F1024" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G1024" t="s">
         <v>1047</v>
@@ -41338,8 +41794,8 @@
       <c r="E1025" t="s">
         <v>1287</v>
       </c>
-      <c r="F1025" s="4">
-        <v>42856</v>
+      <c r="F1025" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="G1025" t="s">
         <v>1047</v>
@@ -41378,8 +41834,8 @@
       <c r="E1026" t="s">
         <v>1288</v>
       </c>
-      <c r="F1026" s="4">
-        <v>33939</v>
+      <c r="F1026" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1026" t="s">
         <v>1049</v>
@@ -41418,8 +41874,8 @@
       <c r="E1027" t="s">
         <v>1288</v>
       </c>
-      <c r="F1027" s="4">
-        <v>33939</v>
+      <c r="F1027" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1027" t="s">
         <v>1049</v>
@@ -41458,8 +41914,8 @@
       <c r="E1028" t="s">
         <v>1288</v>
       </c>
-      <c r="F1028" s="4">
-        <v>33939</v>
+      <c r="F1028" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1028" t="s">
         <v>1049</v>
@@ -41498,8 +41954,8 @@
       <c r="E1029" t="s">
         <v>1288</v>
       </c>
-      <c r="F1029" s="4">
-        <v>33939</v>
+      <c r="F1029" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1029" t="s">
         <v>1049</v>
@@ -41541,8 +41997,8 @@
       <c r="E1030" t="s">
         <v>1199</v>
       </c>
-      <c r="F1030" s="4">
-        <v>42795</v>
+      <c r="F1030" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G1030" t="s">
         <v>1047</v>
@@ -41584,8 +42040,8 @@
       <c r="E1031" t="s">
         <v>1211</v>
       </c>
-      <c r="F1031" s="4">
-        <v>42856</v>
+      <c r="F1031" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="G1031" t="s">
         <v>1047</v>
@@ -41627,8 +42083,8 @@
       <c r="E1032" t="s">
         <v>1289</v>
       </c>
-      <c r="F1032" s="4">
-        <v>35004</v>
+      <c r="F1032" s="4" t="s">
+        <v>1482</v>
       </c>
       <c r="G1032" t="s">
         <v>1049</v>
@@ -41670,8 +42126,8 @@
       <c r="E1033" t="s">
         <v>1092</v>
       </c>
-      <c r="F1033" s="4">
-        <v>33482</v>
+      <c r="F1033" s="4" t="s">
+        <v>1387</v>
       </c>
       <c r="G1033" t="s">
         <v>1048</v>
@@ -41710,8 +42166,8 @@
       <c r="E1034" t="s">
         <v>1290</v>
       </c>
-      <c r="F1034" s="4">
-        <v>43466</v>
+      <c r="F1034" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1034" t="s">
         <v>1047</v>
@@ -41750,8 +42206,8 @@
       <c r="E1035" t="s">
         <v>1290</v>
       </c>
-      <c r="F1035" s="4">
-        <v>43466</v>
+      <c r="F1035" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1035" t="s">
         <v>1047</v>
@@ -41790,8 +42246,8 @@
       <c r="E1036" t="s">
         <v>1236</v>
       </c>
-      <c r="F1036" s="4">
-        <v>43070</v>
+      <c r="F1036" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G1036" t="s">
         <v>1049</v>
@@ -41833,8 +42289,8 @@
       <c r="E1037" t="s">
         <v>1291</v>
       </c>
-      <c r="F1037" s="4">
-        <v>34213</v>
+      <c r="F1037" s="4" t="s">
+        <v>1483</v>
       </c>
       <c r="G1037" t="s">
         <v>1048</v>
@@ -41873,8 +42329,8 @@
       <c r="E1038" t="s">
         <v>1055</v>
       </c>
-      <c r="F1038" s="4">
-        <v>43009</v>
+      <c r="F1038" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1038" t="s">
         <v>1048</v>
@@ -41916,8 +42372,8 @@
       <c r="E1039" t="s">
         <v>1071</v>
       </c>
-      <c r="F1039" s="4">
-        <v>42156</v>
+      <c r="F1039" s="4" t="s">
+        <v>1369</v>
       </c>
       <c r="G1039" t="s">
         <v>1048</v>
@@ -41956,8 +42412,8 @@
       <c r="E1040" t="s">
         <v>1292</v>
       </c>
-      <c r="F1040" s="4">
-        <v>45261</v>
+      <c r="F1040" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1040" t="s">
         <v>1048</v>
@@ -41996,8 +42452,8 @@
       <c r="E1041" t="s">
         <v>1292</v>
       </c>
-      <c r="F1041" s="4">
-        <v>45261</v>
+      <c r="F1041" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1041" t="s">
         <v>1048</v>
@@ -42036,8 +42492,8 @@
       <c r="E1042" t="s">
         <v>1292</v>
       </c>
-      <c r="F1042" s="4">
-        <v>45261</v>
+      <c r="F1042" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1042" t="s">
         <v>1048</v>
@@ -42079,8 +42535,8 @@
       <c r="E1043" t="s">
         <v>1176</v>
       </c>
-      <c r="F1043" s="4">
-        <v>36281</v>
+      <c r="F1043" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1043" t="s">
         <v>1047</v>
@@ -42119,8 +42575,8 @@
       <c r="E1044" t="s">
         <v>1293</v>
       </c>
-      <c r="F1044" s="4">
-        <v>44927</v>
+      <c r="F1044" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G1044" t="s">
         <v>1048</v>
@@ -42162,8 +42618,8 @@
       <c r="E1045" t="s">
         <v>1132</v>
       </c>
-      <c r="F1045" s="4">
-        <v>41944</v>
+      <c r="F1045" s="4" t="s">
+        <v>1414</v>
       </c>
       <c r="G1045" t="s">
         <v>1049</v>
@@ -42202,8 +42658,8 @@
       <c r="E1046" t="s">
         <v>1239</v>
       </c>
-      <c r="F1046" s="4">
-        <v>44256</v>
+      <c r="F1046" s="4" t="s">
+        <v>1404</v>
       </c>
       <c r="G1046" t="s">
         <v>1047</v>
@@ -42242,8 +42698,8 @@
       <c r="E1047" t="s">
         <v>1294</v>
       </c>
-      <c r="F1047" s="4">
-        <v>44958</v>
+      <c r="F1047" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1047" t="s">
         <v>1048</v>
@@ -42282,8 +42738,8 @@
       <c r="E1048" t="s">
         <v>1294</v>
       </c>
-      <c r="F1048" s="4">
-        <v>44958</v>
+      <c r="F1048" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1048" t="s">
         <v>1048</v>
@@ -42322,8 +42778,8 @@
       <c r="E1049" t="s">
         <v>1294</v>
       </c>
-      <c r="F1049" s="4">
-        <v>44958</v>
+      <c r="F1049" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1049" t="s">
         <v>1048</v>
@@ -42365,8 +42821,8 @@
       <c r="E1050" t="s">
         <v>1207</v>
       </c>
-      <c r="F1050" s="4">
-        <v>33329</v>
+      <c r="F1050" s="4" t="s">
+        <v>1405</v>
       </c>
       <c r="G1050" t="s">
         <v>1047</v>
@@ -42405,8 +42861,8 @@
       <c r="E1051" t="s">
         <v>1295</v>
       </c>
-      <c r="F1051" s="4">
-        <v>36495</v>
+      <c r="F1051" s="4" t="s">
+        <v>1484</v>
       </c>
       <c r="G1051" t="s">
         <v>1049</v>
@@ -42448,8 +42904,8 @@
       <c r="E1052" t="s">
         <v>1296</v>
       </c>
-      <c r="F1052" s="4">
-        <v>35643</v>
+      <c r="F1052" s="4" t="s">
+        <v>1485</v>
       </c>
       <c r="G1052" t="s">
         <v>1048</v>
@@ -42488,8 +42944,8 @@
       <c r="E1053" t="s">
         <v>1297</v>
       </c>
-      <c r="F1053" s="4">
-        <v>44927</v>
+      <c r="F1053" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G1053" t="s">
         <v>1048</v>
@@ -42528,8 +42984,8 @@
       <c r="E1054" t="s">
         <v>1177</v>
       </c>
-      <c r="F1054" s="4">
-        <v>35674</v>
+      <c r="F1054" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G1054" t="s">
         <v>1048</v>
@@ -42568,8 +43024,8 @@
       <c r="E1055" t="s">
         <v>1177</v>
       </c>
-      <c r="F1055" s="4">
-        <v>35674</v>
+      <c r="F1055" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G1055" t="s">
         <v>1048</v>
@@ -42608,8 +43064,8 @@
       <c r="E1056" t="s">
         <v>1298</v>
       </c>
-      <c r="F1056" s="4">
-        <v>43191</v>
+      <c r="F1056" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="G1056" t="s">
         <v>1047</v>
@@ -42651,8 +43107,8 @@
       <c r="E1057" t="s">
         <v>1279</v>
       </c>
-      <c r="F1057" s="4">
-        <v>42036</v>
+      <c r="F1057" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="G1057" t="s">
         <v>1047</v>
@@ -42691,8 +43147,8 @@
       <c r="E1058" t="s">
         <v>1263</v>
       </c>
-      <c r="F1058" s="4">
-        <v>42125</v>
+      <c r="F1058" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G1058" t="s">
         <v>1047</v>
@@ -42731,8 +43187,8 @@
       <c r="E1059" t="s">
         <v>1299</v>
       </c>
-      <c r="F1059" s="4">
-        <v>33086</v>
+      <c r="F1059" s="4" t="s">
+        <v>1487</v>
       </c>
       <c r="G1059" t="s">
         <v>1048</v>
@@ -42774,8 +43230,8 @@
       <c r="E1060" t="s">
         <v>1073</v>
       </c>
-      <c r="F1060" s="4">
-        <v>45047</v>
+      <c r="F1060" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1060" t="s">
         <v>1047</v>
@@ -42817,8 +43273,8 @@
       <c r="E1061" t="s">
         <v>1073</v>
       </c>
-      <c r="F1061" s="4">
-        <v>45047</v>
+      <c r="F1061" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1061" t="s">
         <v>1047</v>
@@ -42860,8 +43316,8 @@
       <c r="E1062" t="s">
         <v>1073</v>
       </c>
-      <c r="F1062" s="4">
-        <v>45047</v>
+      <c r="F1062" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1062" t="s">
         <v>1047</v>
@@ -42903,8 +43359,8 @@
       <c r="E1063" t="s">
         <v>1073</v>
       </c>
-      <c r="F1063" s="4">
-        <v>45047</v>
+      <c r="F1063" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1063" t="s">
         <v>1047</v>
@@ -42946,8 +43402,8 @@
       <c r="E1064" t="s">
         <v>1073</v>
       </c>
-      <c r="F1064" s="4">
-        <v>45047</v>
+      <c r="F1064" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1064" t="s">
         <v>1047</v>
@@ -42986,8 +43442,8 @@
       <c r="E1065" t="s">
         <v>1119</v>
       </c>
-      <c r="F1065" s="4">
-        <v>45047</v>
+      <c r="F1065" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1065" t="s">
         <v>1048</v>
@@ -43026,8 +43482,8 @@
       <c r="E1066" t="s">
         <v>1300</v>
       </c>
-      <c r="F1066" s="4">
-        <v>34060</v>
+      <c r="F1066" s="4" t="s">
+        <v>1488</v>
       </c>
       <c r="G1066" t="s">
         <v>1047</v>
@@ -43106,8 +43562,8 @@
       <c r="E1068" t="s">
         <v>1190</v>
       </c>
-      <c r="F1068" s="4">
-        <v>30834</v>
+      <c r="F1068" s="4" t="s">
+        <v>1447</v>
       </c>
       <c r="G1068" t="s">
         <v>1048</v>
@@ -43149,8 +43605,8 @@
       <c r="E1069" t="s">
         <v>1302</v>
       </c>
-      <c r="F1069" s="4">
-        <v>43040</v>
+      <c r="F1069" s="4" t="s">
+        <v>1489</v>
       </c>
       <c r="G1069" t="s">
         <v>1049</v>
@@ -43192,8 +43648,8 @@
       <c r="E1070" t="s">
         <v>1302</v>
       </c>
-      <c r="F1070" s="4">
-        <v>43040</v>
+      <c r="F1070" s="4" t="s">
+        <v>1489</v>
       </c>
       <c r="G1070" t="s">
         <v>1049</v>
@@ -43235,8 +43691,8 @@
       <c r="E1071" t="s">
         <v>1302</v>
       </c>
-      <c r="F1071" s="4">
-        <v>43040</v>
+      <c r="F1071" s="4" t="s">
+        <v>1489</v>
       </c>
       <c r="G1071" t="s">
         <v>1049</v>
@@ -43278,8 +43734,8 @@
       <c r="E1072" t="s">
         <v>1302</v>
       </c>
-      <c r="F1072" s="4">
-        <v>43040</v>
+      <c r="F1072" s="4" t="s">
+        <v>1489</v>
       </c>
       <c r="G1072" t="s">
         <v>1049</v>
@@ -43318,8 +43774,8 @@
       <c r="E1073" t="s">
         <v>1269</v>
       </c>
-      <c r="F1073" s="4">
-        <v>42125</v>
+      <c r="F1073" s="4" t="s">
+        <v>1399</v>
       </c>
       <c r="G1073" t="s">
         <v>1047</v>
@@ -43358,8 +43814,8 @@
       <c r="E1074" t="s">
         <v>1303</v>
       </c>
-      <c r="F1074" s="4">
-        <v>44197</v>
+      <c r="F1074" s="4" t="s">
+        <v>1490</v>
       </c>
       <c r="G1074" t="s">
         <v>1047</v>
@@ -43398,8 +43854,8 @@
       <c r="E1075" t="s">
         <v>1214</v>
       </c>
-      <c r="F1075" s="4">
-        <v>31321</v>
+      <c r="F1075" s="4" t="s">
+        <v>1460</v>
       </c>
       <c r="G1075" t="s">
         <v>1048</v>
@@ -43441,8 +43897,8 @@
       <c r="E1076" t="s">
         <v>1304</v>
       </c>
-      <c r="F1076" s="4">
-        <v>43497</v>
+      <c r="F1076" s="4" t="s">
+        <v>1491</v>
       </c>
       <c r="G1076" t="s">
         <v>1047</v>
@@ -43481,8 +43937,8 @@
       <c r="E1077" t="s">
         <v>1223</v>
       </c>
-      <c r="F1077" s="4">
-        <v>33147</v>
+      <c r="F1077" s="4" t="s">
+        <v>1464</v>
       </c>
       <c r="G1077" t="s">
         <v>1048</v>
@@ -43521,8 +43977,8 @@
       <c r="E1078" t="s">
         <v>1223</v>
       </c>
-      <c r="F1078" s="4">
-        <v>33147</v>
+      <c r="F1078" s="4" t="s">
+        <v>1464</v>
       </c>
       <c r="G1078" t="s">
         <v>1048</v>
@@ -43561,8 +44017,8 @@
       <c r="E1079" t="s">
         <v>1121</v>
       </c>
-      <c r="F1079" s="4">
-        <v>45261</v>
+      <c r="F1079" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1079" t="s">
         <v>1048</v>
@@ -43604,8 +44060,8 @@
       <c r="E1080" t="s">
         <v>1175</v>
       </c>
-      <c r="F1080" s="4">
-        <v>41456</v>
+      <c r="F1080" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="G1080" t="s">
         <v>1048</v>
@@ -43644,8 +44100,8 @@
       <c r="E1081" t="s">
         <v>1171</v>
       </c>
-      <c r="F1081" s="4">
-        <v>41334</v>
+      <c r="F1081" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="G1081" t="s">
         <v>1047</v>
@@ -43684,8 +44140,8 @@
       <c r="E1082" t="s">
         <v>1067</v>
       </c>
-      <c r="F1082" s="4">
-        <v>42339</v>
+      <c r="F1082" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="G1082" t="s">
         <v>1049</v>
@@ -43727,8 +44183,8 @@
       <c r="E1083" t="s">
         <v>1305</v>
       </c>
-      <c r="F1083" s="4">
-        <v>43831</v>
+      <c r="F1083" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="G1083" t="s">
         <v>1047</v>
@@ -43770,8 +44226,8 @@
       <c r="E1084" t="s">
         <v>1305</v>
       </c>
-      <c r="F1084" s="4">
-        <v>43831</v>
+      <c r="F1084" s="4" t="s">
+        <v>1428</v>
       </c>
       <c r="G1084" t="s">
         <v>1047</v>
@@ -43810,8 +44266,8 @@
       <c r="E1085" t="s">
         <v>1078</v>
       </c>
-      <c r="F1085" s="4">
-        <v>43983</v>
+      <c r="F1085" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G1085" t="s">
         <v>1048</v>
@@ -43850,8 +44306,8 @@
       <c r="E1086" t="s">
         <v>1200</v>
       </c>
-      <c r="F1086" s="4">
-        <v>42309</v>
+      <c r="F1086" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G1086" t="s">
         <v>1049</v>
@@ -43890,8 +44346,8 @@
       <c r="E1087" t="s">
         <v>1306</v>
       </c>
-      <c r="F1087" s="4">
-        <v>33725</v>
+      <c r="F1087" s="4" t="s">
+        <v>1492</v>
       </c>
       <c r="G1087" t="s">
         <v>1047</v>
@@ -43930,8 +44386,8 @@
       <c r="E1088" t="s">
         <v>1126</v>
       </c>
-      <c r="F1088" s="4">
-        <v>41275</v>
+      <c r="F1088" s="4" t="s">
+        <v>1409</v>
       </c>
       <c r="G1088" t="s">
         <v>1047</v>
@@ -43973,8 +44429,8 @@
       <c r="E1089" t="s">
         <v>1141</v>
       </c>
-      <c r="F1089" s="4">
-        <v>34121</v>
+      <c r="F1089" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="G1089" t="s">
         <v>1048</v>
@@ -44016,8 +44472,8 @@
       <c r="E1090" t="s">
         <v>1141</v>
       </c>
-      <c r="F1090" s="4">
-        <v>34121</v>
+      <c r="F1090" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="G1090" t="s">
         <v>1048</v>
@@ -44059,8 +44515,8 @@
       <c r="E1091" t="s">
         <v>1141</v>
       </c>
-      <c r="F1091" s="4">
-        <v>34121</v>
+      <c r="F1091" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="G1091" t="s">
         <v>1048</v>
@@ -44102,8 +44558,8 @@
       <c r="E1092" t="s">
         <v>1141</v>
       </c>
-      <c r="F1092" s="4">
-        <v>34121</v>
+      <c r="F1092" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="G1092" t="s">
         <v>1048</v>
@@ -44142,8 +44598,8 @@
       <c r="E1093" t="s">
         <v>1221</v>
       </c>
-      <c r="F1093" s="4">
-        <v>41518</v>
+      <c r="F1093" s="4" t="s">
+        <v>1463</v>
       </c>
       <c r="G1093" t="s">
         <v>1048</v>
@@ -44185,8 +44641,8 @@
       <c r="E1094" t="s">
         <v>1307</v>
       </c>
-      <c r="F1094" s="4">
-        <v>45261</v>
+      <c r="F1094" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1094" t="s">
         <v>1048</v>
@@ -44225,8 +44681,8 @@
       <c r="E1095" t="s">
         <v>1308</v>
       </c>
-      <c r="F1095" s="4">
-        <v>45200</v>
+      <c r="F1095" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G1095" t="s">
         <v>1047</v>
@@ -44265,8 +44721,8 @@
       <c r="E1096" t="s">
         <v>1309</v>
       </c>
-      <c r="F1096" s="4">
-        <v>41974</v>
+      <c r="F1096" s="4" t="s">
+        <v>1493</v>
       </c>
       <c r="G1096" t="s">
         <v>1049</v>
@@ -44308,8 +44764,8 @@
       <c r="E1097" t="s">
         <v>1183</v>
       </c>
-      <c r="F1097" s="4">
-        <v>45170</v>
+      <c r="F1097" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1097" t="s">
         <v>1048</v>
@@ -44351,8 +44807,8 @@
       <c r="E1098" t="s">
         <v>1183</v>
       </c>
-      <c r="F1098" s="4">
-        <v>45170</v>
+      <c r="F1098" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1098" t="s">
         <v>1048</v>
@@ -44394,8 +44850,8 @@
       <c r="E1099" t="s">
         <v>1183</v>
       </c>
-      <c r="F1099" s="4">
-        <v>45170</v>
+      <c r="F1099" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1099" t="s">
         <v>1048</v>
@@ -44437,8 +44893,8 @@
       <c r="E1100" t="s">
         <v>1183</v>
       </c>
-      <c r="F1100" s="4">
-        <v>45170</v>
+      <c r="F1100" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1100" t="s">
         <v>1048</v>
@@ -44477,8 +44933,8 @@
       <c r="E1101" t="s">
         <v>1310</v>
       </c>
-      <c r="F1101" s="4">
-        <v>45108</v>
+      <c r="F1101" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="G1101" t="s">
         <v>1049</v>
@@ -44517,8 +44973,8 @@
       <c r="E1102" t="s">
         <v>1311</v>
       </c>
-      <c r="F1102" s="4">
-        <v>41365</v>
+      <c r="F1102" s="4" t="s">
+        <v>1449</v>
       </c>
       <c r="G1102" t="s">
         <v>1047</v>
@@ -44560,8 +45016,8 @@
       <c r="E1103" t="s">
         <v>1241</v>
       </c>
-      <c r="F1103" s="4">
-        <v>45261</v>
+      <c r="F1103" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1103" t="s">
         <v>1048</v>
@@ -44600,8 +45056,8 @@
       <c r="E1104" t="s">
         <v>1157</v>
       </c>
-      <c r="F1104" s="4">
-        <v>43435</v>
+      <c r="F1104" s="4" t="s">
+        <v>1427</v>
       </c>
       <c r="G1104" t="s">
         <v>1049</v>
@@ -44640,8 +45096,8 @@
       <c r="E1105" t="s">
         <v>1136</v>
       </c>
-      <c r="F1105" s="4">
-        <v>45017</v>
+      <c r="F1105" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G1105" t="s">
         <v>1047</v>
@@ -44680,8 +45136,8 @@
       <c r="E1106" t="s">
         <v>1136</v>
       </c>
-      <c r="F1106" s="4">
-        <v>45017</v>
+      <c r="F1106" s="4" t="s">
+        <v>1410</v>
       </c>
       <c r="G1106" t="s">
         <v>1047</v>
@@ -44723,8 +45179,8 @@
       <c r="E1107" t="s">
         <v>1105</v>
       </c>
-      <c r="F1107" s="4">
-        <v>32295</v>
+      <c r="F1107" s="4" t="s">
+        <v>1397</v>
       </c>
       <c r="G1107" t="s">
         <v>1048</v>
@@ -44763,8 +45219,8 @@
       <c r="E1108" t="s">
         <v>1173</v>
       </c>
-      <c r="F1108" s="4">
-        <v>45231</v>
+      <c r="F1108" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G1108" t="s">
         <v>1047</v>
@@ -44803,8 +45259,8 @@
       <c r="E1109" t="s">
         <v>1292</v>
       </c>
-      <c r="F1109" s="4">
-        <v>45261</v>
+      <c r="F1109" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1109" t="s">
         <v>1048</v>
@@ -44846,8 +45302,8 @@
       <c r="E1110" t="s">
         <v>1312</v>
       </c>
-      <c r="F1110" s="4">
-        <v>32752</v>
+      <c r="F1110" s="4" t="s">
+        <v>1494</v>
       </c>
       <c r="G1110" t="s">
         <v>1048</v>
@@ -44886,8 +45342,8 @@
       <c r="E1111" t="s">
         <v>1288</v>
       </c>
-      <c r="F1111" s="4">
-        <v>33939</v>
+      <c r="F1111" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1111" t="s">
         <v>1049</v>
@@ -44926,8 +45382,8 @@
       <c r="E1112" t="s">
         <v>1288</v>
       </c>
-      <c r="F1112" s="4">
-        <v>33939</v>
+      <c r="F1112" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1112" t="s">
         <v>1049</v>
@@ -44966,8 +45422,8 @@
       <c r="E1113" t="s">
         <v>1288</v>
       </c>
-      <c r="F1113" s="4">
-        <v>33939</v>
+      <c r="F1113" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1113" t="s">
         <v>1049</v>
@@ -45006,8 +45462,8 @@
       <c r="E1114" t="s">
         <v>1313</v>
       </c>
-      <c r="F1114" s="4">
-        <v>45139</v>
+      <c r="F1114" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G1114" t="s">
         <v>1048</v>
@@ -45046,8 +45502,8 @@
       <c r="E1115" t="s">
         <v>1314</v>
       </c>
-      <c r="F1115" s="4">
-        <v>45047</v>
+      <c r="F1115" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1115" t="s">
         <v>1049</v>
@@ -45089,8 +45545,8 @@
       <c r="E1116" t="s">
         <v>1315</v>
       </c>
-      <c r="F1116" s="4">
-        <v>42064</v>
+      <c r="F1116" s="4" t="s">
+        <v>1495</v>
       </c>
       <c r="G1116" t="s">
         <v>1047</v>
@@ -45129,8 +45585,8 @@
       <c r="E1117" t="s">
         <v>1256</v>
       </c>
-      <c r="F1117" s="4">
-        <v>42675</v>
+      <c r="F1117" s="4" t="s">
+        <v>1412</v>
       </c>
       <c r="G1117" t="s">
         <v>1049</v>
@@ -45169,8 +45625,8 @@
       <c r="E1118" t="s">
         <v>1138</v>
       </c>
-      <c r="F1118" s="4">
-        <v>43952</v>
+      <c r="F1118" s="4" t="s">
+        <v>1419</v>
       </c>
       <c r="G1118" t="s">
         <v>1047</v>
@@ -45209,8 +45665,8 @@
       <c r="E1119" t="s">
         <v>1138</v>
       </c>
-      <c r="F1119" s="4">
-        <v>43952</v>
+      <c r="F1119" s="4" t="s">
+        <v>1419</v>
       </c>
       <c r="G1119" t="s">
         <v>1047</v>
@@ -45252,8 +45708,8 @@
       <c r="E1120" t="s">
         <v>1167</v>
       </c>
-      <c r="F1120" s="4">
-        <v>42917</v>
+      <c r="F1120" s="4" t="s">
+        <v>1431</v>
       </c>
       <c r="G1120" t="s">
         <v>1048</v>
@@ -45292,8 +45748,8 @@
       <c r="E1121" t="s">
         <v>1254</v>
       </c>
-      <c r="F1121" s="4">
-        <v>36251</v>
+      <c r="F1121" s="4" t="s">
+        <v>1472</v>
       </c>
       <c r="G1121" t="s">
         <v>1047</v>
@@ -45335,8 +45791,8 @@
       <c r="E1122" t="s">
         <v>1316</v>
       </c>
-      <c r="F1122" s="4">
-        <v>33390</v>
+      <c r="F1122" s="4" t="s">
+        <v>1496</v>
       </c>
       <c r="G1122" t="s">
         <v>1048</v>
@@ -45375,8 +45831,8 @@
       <c r="E1123" t="s">
         <v>1277</v>
       </c>
-      <c r="F1123" s="4">
-        <v>42887</v>
+      <c r="F1123" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="G1123" t="s">
         <v>1048</v>
@@ -45415,8 +45871,8 @@
       <c r="E1124" t="s">
         <v>1277</v>
       </c>
-      <c r="F1124" s="4">
-        <v>42887</v>
+      <c r="F1124" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="G1124" t="s">
         <v>1048</v>
@@ -45455,8 +45911,8 @@
       <c r="E1125" t="s">
         <v>1277</v>
       </c>
-      <c r="F1125" s="4">
-        <v>42887</v>
+      <c r="F1125" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="G1125" t="s">
         <v>1048</v>
@@ -45495,8 +45951,8 @@
       <c r="E1126" t="s">
         <v>1277</v>
       </c>
-      <c r="F1126" s="4">
-        <v>42887</v>
+      <c r="F1126" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="G1126" t="s">
         <v>1048</v>
@@ -45538,8 +45994,8 @@
       <c r="E1127" t="s">
         <v>1317</v>
       </c>
-      <c r="F1127" s="4">
-        <v>44197</v>
+      <c r="F1127" s="4" t="s">
+        <v>1490</v>
       </c>
       <c r="G1127" t="s">
         <v>1047</v>
@@ -45578,8 +46034,8 @@
       <c r="E1128" t="s">
         <v>1140</v>
       </c>
-      <c r="F1128" s="4">
-        <v>42461</v>
+      <c r="F1128" s="4" t="s">
+        <v>1421</v>
       </c>
       <c r="G1128" t="s">
         <v>1047</v>
@@ -45621,8 +46077,8 @@
       <c r="E1129" t="s">
         <v>1318</v>
       </c>
-      <c r="F1129" s="4">
-        <v>45170</v>
+      <c r="F1129" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1129" t="s">
         <v>1047</v>
@@ -45661,8 +46117,8 @@
       <c r="E1130" t="s">
         <v>1319</v>
       </c>
-      <c r="F1130" s="4">
-        <v>44044</v>
+      <c r="F1130" s="4" t="s">
+        <v>1393</v>
       </c>
       <c r="G1130" t="s">
         <v>1048</v>
@@ -45701,8 +46157,8 @@
       <c r="E1131" t="s">
         <v>1203</v>
       </c>
-      <c r="F1131" s="4">
-        <v>43466</v>
+      <c r="F1131" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1131" t="s">
         <v>1047</v>
@@ -45741,8 +46197,8 @@
       <c r="E1132" t="s">
         <v>1203</v>
       </c>
-      <c r="F1132" s="4">
-        <v>43466</v>
+      <c r="F1132" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1132" t="s">
         <v>1047</v>
@@ -45781,8 +46237,8 @@
       <c r="E1133" t="s">
         <v>1203</v>
       </c>
-      <c r="F1133" s="4">
-        <v>43466</v>
+      <c r="F1133" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1133" t="s">
         <v>1047</v>
@@ -45821,8 +46277,8 @@
       <c r="E1134" t="s">
         <v>1203</v>
       </c>
-      <c r="F1134" s="4">
-        <v>43466</v>
+      <c r="F1134" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1134" t="s">
         <v>1047</v>
@@ -45864,8 +46320,8 @@
       <c r="E1135" t="s">
         <v>1320</v>
       </c>
-      <c r="F1135" s="4">
-        <v>35827</v>
+      <c r="F1135" s="4" t="s">
+        <v>1497</v>
       </c>
       <c r="G1135" t="s">
         <v>1047</v>
@@ -45904,8 +46360,8 @@
       <c r="E1136" t="s">
         <v>1053</v>
       </c>
-      <c r="F1136" s="4">
-        <v>43617</v>
+      <c r="F1136" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="G1136" t="s">
         <v>1048</v>
@@ -45947,8 +46403,8 @@
       <c r="E1137" t="s">
         <v>1176</v>
       </c>
-      <c r="F1137" s="4">
-        <v>36281</v>
+      <c r="F1137" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1137" t="s">
         <v>1047</v>
@@ -46030,8 +46486,8 @@
       <c r="E1139" t="s">
         <v>1177</v>
       </c>
-      <c r="F1139" s="4">
-        <v>35674</v>
+      <c r="F1139" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G1139" t="s">
         <v>1048</v>
@@ -46073,8 +46529,8 @@
       <c r="E1140" t="s">
         <v>1177</v>
       </c>
-      <c r="F1140" s="4">
-        <v>35674</v>
+      <c r="F1140" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="G1140" t="s">
         <v>1048</v>
@@ -46113,8 +46569,8 @@
       <c r="E1141" t="s">
         <v>1322</v>
       </c>
-      <c r="F1141" s="4">
-        <v>31898</v>
+      <c r="F1141" s="4" t="s">
+        <v>1498</v>
       </c>
       <c r="G1141" t="s">
         <v>1047</v>
@@ -46153,8 +46609,8 @@
       <c r="E1142" t="s">
         <v>1323</v>
       </c>
-      <c r="F1142" s="4">
-        <v>43983</v>
+      <c r="F1142" s="4" t="s">
+        <v>1375</v>
       </c>
       <c r="G1142" t="s">
         <v>1048</v>
@@ -46196,8 +46652,8 @@
       <c r="E1143" t="s">
         <v>1171</v>
       </c>
-      <c r="F1143" s="4">
-        <v>41334</v>
+      <c r="F1143" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="G1143" t="s">
         <v>1047</v>
@@ -46279,8 +46735,8 @@
       <c r="E1145" t="s">
         <v>1236</v>
       </c>
-      <c r="F1145" s="4">
-        <v>43070</v>
+      <c r="F1145" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G1145" t="s">
         <v>1049</v>
@@ -46319,8 +46775,8 @@
       <c r="E1146" t="s">
         <v>1236</v>
       </c>
-      <c r="F1146" s="4">
-        <v>43070</v>
+      <c r="F1146" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="G1146" t="s">
         <v>1049</v>
@@ -46359,8 +46815,8 @@
       <c r="E1147" t="s">
         <v>1077</v>
       </c>
-      <c r="F1147" s="4">
-        <v>31594</v>
+      <c r="F1147" s="4" t="s">
+        <v>1374</v>
       </c>
       <c r="G1147" t="s">
         <v>1048</v>
@@ -46399,8 +46855,8 @@
       <c r="E1148" t="s">
         <v>1325</v>
       </c>
-      <c r="F1148" s="4">
-        <v>45139</v>
+      <c r="F1148" s="4" t="s">
+        <v>1390</v>
       </c>
       <c r="G1148" t="s">
         <v>1048</v>
@@ -46439,8 +46895,8 @@
       <c r="E1149" t="s">
         <v>1187</v>
       </c>
-      <c r="F1149" s="4">
-        <v>28004</v>
+      <c r="F1149" s="4" t="s">
+        <v>1445</v>
       </c>
       <c r="G1149" t="s">
         <v>1048</v>
@@ -46482,8 +46938,8 @@
       <c r="E1150" t="s">
         <v>1260</v>
       </c>
-      <c r="F1150" s="4">
-        <v>45047</v>
+      <c r="F1150" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1150" t="s">
         <v>1048</v>
@@ -46522,8 +46978,8 @@
       <c r="E1151" t="s">
         <v>1326</v>
       </c>
-      <c r="F1151" s="4">
-        <v>43556</v>
+      <c r="F1151" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1151" t="s">
         <v>1047</v>
@@ -46562,8 +47018,8 @@
       <c r="E1152" t="s">
         <v>1326</v>
       </c>
-      <c r="F1152" s="4">
-        <v>43556</v>
+      <c r="F1152" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1152" t="s">
         <v>1047</v>
@@ -46602,8 +47058,8 @@
       <c r="E1153" t="s">
         <v>1326</v>
       </c>
-      <c r="F1153" s="4">
-        <v>43556</v>
+      <c r="F1153" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1153" t="s">
         <v>1047</v>
@@ -46642,8 +47098,8 @@
       <c r="E1154" t="s">
         <v>1326</v>
       </c>
-      <c r="F1154" s="4">
-        <v>43556</v>
+      <c r="F1154" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1154" t="s">
         <v>1047</v>
@@ -46682,8 +47138,8 @@
       <c r="E1155" t="s">
         <v>1327</v>
       </c>
-      <c r="F1155" s="4">
-        <v>44166</v>
+      <c r="F1155" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1155" t="s">
         <v>1049</v>
@@ -46725,8 +47181,8 @@
       <c r="E1156" t="s">
         <v>1328</v>
       </c>
-      <c r="F1156" s="4">
-        <v>42917</v>
+      <c r="F1156" s="4" t="s">
+        <v>1431</v>
       </c>
       <c r="G1156" t="s">
         <v>1048</v>
@@ -46765,8 +47221,8 @@
       <c r="E1157" t="s">
         <v>1101</v>
       </c>
-      <c r="F1157" s="4">
-        <v>44044</v>
+      <c r="F1157" s="4" t="s">
+        <v>1393</v>
       </c>
       <c r="G1157" t="s">
         <v>1048</v>
@@ -46808,8 +47264,8 @@
       <c r="E1158" t="s">
         <v>1175</v>
       </c>
-      <c r="F1158" s="4">
-        <v>41456</v>
+      <c r="F1158" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="G1158" t="s">
         <v>1048</v>
@@ -46848,8 +47304,8 @@
       <c r="E1159" t="s">
         <v>1318</v>
       </c>
-      <c r="F1159" s="4">
-        <v>45170</v>
+      <c r="F1159" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1159" t="s">
         <v>1047</v>
@@ -46888,8 +47344,8 @@
       <c r="E1160" t="s">
         <v>1318</v>
       </c>
-      <c r="F1160" s="4">
-        <v>45170</v>
+      <c r="F1160" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1160" t="s">
         <v>1047</v>
@@ -46928,8 +47384,8 @@
       <c r="E1161" t="s">
         <v>1074</v>
       </c>
-      <c r="F1161" s="4">
-        <v>31017</v>
+      <c r="F1161" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="G1161" t="s">
         <v>1049</v>
@@ -46968,8 +47424,8 @@
       <c r="E1162" t="s">
         <v>1190</v>
       </c>
-      <c r="F1162" s="4">
-        <v>30834</v>
+      <c r="F1162" s="4" t="s">
+        <v>1447</v>
       </c>
       <c r="G1162" t="s">
         <v>1048</v>
@@ -47011,8 +47467,8 @@
       <c r="E1163" t="s">
         <v>1054</v>
       </c>
-      <c r="F1163" s="4">
-        <v>41760</v>
+      <c r="F1163" s="4" t="s">
+        <v>1353</v>
       </c>
       <c r="G1163" t="s">
         <v>1047</v>
@@ -47051,8 +47507,8 @@
       <c r="E1164" t="s">
         <v>1304</v>
       </c>
-      <c r="F1164" s="4">
-        <v>43497</v>
+      <c r="F1164" s="4" t="s">
+        <v>1491</v>
       </c>
       <c r="G1164" t="s">
         <v>1047</v>
@@ -47091,8 +47547,8 @@
       <c r="E1165" t="s">
         <v>1055</v>
       </c>
-      <c r="F1165" s="4">
-        <v>43009</v>
+      <c r="F1165" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1165" t="s">
         <v>1048</v>
@@ -47131,8 +47587,8 @@
       <c r="E1166" t="s">
         <v>1055</v>
       </c>
-      <c r="F1166" s="4">
-        <v>43009</v>
+      <c r="F1166" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1166" t="s">
         <v>1048</v>
@@ -47171,8 +47627,8 @@
       <c r="E1167" t="s">
         <v>1055</v>
       </c>
-      <c r="F1167" s="4">
-        <v>43009</v>
+      <c r="F1167" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1167" t="s">
         <v>1048</v>
@@ -47211,8 +47667,8 @@
       <c r="E1168" t="s">
         <v>1055</v>
       </c>
-      <c r="F1168" s="4">
-        <v>43009</v>
+      <c r="F1168" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1168" t="s">
         <v>1048</v>
@@ -47251,8 +47707,8 @@
       <c r="E1169" t="s">
         <v>1055</v>
       </c>
-      <c r="F1169" s="4">
-        <v>43009</v>
+      <c r="F1169" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1169" t="s">
         <v>1048</v>
@@ -47291,8 +47747,8 @@
       <c r="E1170" t="s">
         <v>1055</v>
       </c>
-      <c r="F1170" s="4">
-        <v>43009</v>
+      <c r="F1170" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1170" t="s">
         <v>1048</v>
@@ -47331,8 +47787,8 @@
       <c r="E1171" t="s">
         <v>1055</v>
       </c>
-      <c r="F1171" s="4">
-        <v>43009</v>
+      <c r="F1171" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1171" t="s">
         <v>1048</v>
@@ -47371,8 +47827,8 @@
       <c r="E1172" t="s">
         <v>1055</v>
       </c>
-      <c r="F1172" s="4">
-        <v>43009</v>
+      <c r="F1172" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1172" t="s">
         <v>1048</v>
@@ -47414,8 +47870,8 @@
       <c r="E1173" t="s">
         <v>1212</v>
       </c>
-      <c r="F1173" s="4">
-        <v>44958</v>
+      <c r="F1173" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1173" t="s">
         <v>1047</v>
@@ -47457,8 +47913,8 @@
       <c r="E1174" t="s">
         <v>1329</v>
       </c>
-      <c r="F1174" s="4">
-        <v>45078</v>
+      <c r="F1174" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="G1174" t="s">
         <v>1048</v>
@@ -47500,8 +47956,8 @@
       <c r="E1175" t="s">
         <v>1280</v>
       </c>
-      <c r="F1175" s="4">
-        <v>42552</v>
+      <c r="F1175" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="G1175" t="s">
         <v>1048</v>
@@ -47543,8 +47999,8 @@
       <c r="E1176" t="s">
         <v>1330</v>
       </c>
-      <c r="F1176" s="4">
-        <v>35462</v>
+      <c r="F1176" s="4" t="s">
+        <v>1499</v>
       </c>
       <c r="G1176" t="s">
         <v>1047</v>
@@ -47583,8 +48039,8 @@
       <c r="E1177" t="s">
         <v>1298</v>
       </c>
-      <c r="F1177" s="4">
-        <v>43191</v>
+      <c r="F1177" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="G1177" t="s">
         <v>1047</v>
@@ -47623,8 +48079,8 @@
       <c r="E1178" t="s">
         <v>1298</v>
       </c>
-      <c r="F1178" s="4">
-        <v>43191</v>
+      <c r="F1178" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="G1178" t="s">
         <v>1047</v>
@@ -47663,8 +48119,8 @@
       <c r="E1179" t="s">
         <v>1298</v>
       </c>
-      <c r="F1179" s="4">
-        <v>43191</v>
+      <c r="F1179" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="G1179" t="s">
         <v>1047</v>
@@ -47703,8 +48159,8 @@
       <c r="E1180" t="s">
         <v>1331</v>
       </c>
-      <c r="F1180" s="4">
-        <v>42979</v>
+      <c r="F1180" s="4" t="s">
+        <v>1378</v>
       </c>
       <c r="G1180" t="s">
         <v>1048</v>
@@ -47743,8 +48199,8 @@
       <c r="E1181" t="s">
         <v>1167</v>
       </c>
-      <c r="F1181" s="4">
-        <v>42917</v>
+      <c r="F1181" s="4" t="s">
+        <v>1431</v>
       </c>
       <c r="G1181" t="s">
         <v>1048</v>
@@ -47786,8 +48242,8 @@
       <c r="E1182" t="s">
         <v>1266</v>
       </c>
-      <c r="F1182" s="4">
-        <v>43101</v>
+      <c r="F1182" s="4" t="s">
+        <v>1448</v>
       </c>
       <c r="G1182" t="s">
         <v>1047</v>
@@ -47829,8 +48285,8 @@
       <c r="E1183" t="s">
         <v>1332</v>
       </c>
-      <c r="F1183" s="4">
-        <v>41791</v>
+      <c r="F1183" s="4" t="s">
+        <v>1392</v>
       </c>
       <c r="G1183" t="s">
         <v>1048</v>
@@ -47869,8 +48325,8 @@
       <c r="E1184" t="s">
         <v>1205</v>
       </c>
-      <c r="F1184" s="4">
-        <v>34425</v>
+      <c r="F1184" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G1184" t="s">
         <v>1047</v>
@@ -47909,8 +48365,8 @@
       <c r="E1185" t="s">
         <v>1205</v>
       </c>
-      <c r="F1185" s="4">
-        <v>34425</v>
+      <c r="F1185" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G1185" t="s">
         <v>1047</v>
@@ -47949,8 +48405,8 @@
       <c r="E1186" t="s">
         <v>1205</v>
       </c>
-      <c r="F1186" s="4">
-        <v>34425</v>
+      <c r="F1186" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="G1186" t="s">
         <v>1047</v>
@@ -47992,8 +48448,8 @@
       <c r="E1187" t="s">
         <v>1195</v>
       </c>
-      <c r="F1187" s="4">
-        <v>45170</v>
+      <c r="F1187" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1187" t="s">
         <v>1047</v>
@@ -48032,8 +48488,8 @@
       <c r="E1188" t="s">
         <v>1278</v>
       </c>
-      <c r="F1188" s="4">
-        <v>45261</v>
+      <c r="F1188" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1188" t="s">
         <v>1048</v>
@@ -48072,8 +48528,8 @@
       <c r="E1189" t="s">
         <v>1119</v>
       </c>
-      <c r="F1189" s="4">
-        <v>45047</v>
+      <c r="F1189" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1189" t="s">
         <v>1048</v>
@@ -48115,8 +48571,8 @@
       <c r="E1190" t="s">
         <v>1333</v>
       </c>
-      <c r="F1190" s="4">
-        <v>35065</v>
+      <c r="F1190" s="4" t="s">
+        <v>1500</v>
       </c>
       <c r="G1190" t="s">
         <v>1047</v>
@@ -48158,8 +48614,8 @@
       <c r="E1191" t="s">
         <v>1334</v>
       </c>
-      <c r="F1191" s="4">
-        <v>44166</v>
+      <c r="F1191" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1191" t="s">
         <v>1049</v>
@@ -48201,8 +48657,8 @@
       <c r="E1192" t="s">
         <v>1334</v>
       </c>
-      <c r="F1192" s="4">
-        <v>44166</v>
+      <c r="F1192" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1192" t="s">
         <v>1049</v>
@@ -48241,8 +48697,8 @@
       <c r="E1193" t="s">
         <v>1335</v>
       </c>
-      <c r="F1193" s="4">
-        <v>41913</v>
+      <c r="F1193" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G1193" t="s">
         <v>1048</v>
@@ -48284,8 +48740,8 @@
       <c r="E1194" t="s">
         <v>1055</v>
       </c>
-      <c r="F1194" s="4">
-        <v>43009</v>
+      <c r="F1194" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1194" t="s">
         <v>1048</v>
@@ -48324,8 +48780,8 @@
       <c r="E1195" t="s">
         <v>1065</v>
       </c>
-      <c r="F1195" s="4">
-        <v>44958</v>
+      <c r="F1195" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1195" t="s">
         <v>1048</v>
@@ -48367,8 +48823,8 @@
       <c r="E1196" t="s">
         <v>1124</v>
       </c>
-      <c r="F1196" s="4">
-        <v>35582</v>
+      <c r="F1196" s="4" t="s">
+        <v>1407</v>
       </c>
       <c r="G1196" t="s">
         <v>1048</v>
@@ -48407,8 +48863,8 @@
       <c r="E1197" t="s">
         <v>1290</v>
       </c>
-      <c r="F1197" s="4">
-        <v>43466</v>
+      <c r="F1197" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1197" t="s">
         <v>1047</v>
@@ -48447,8 +48903,8 @@
       <c r="E1198" t="s">
         <v>1290</v>
       </c>
-      <c r="F1198" s="4">
-        <v>43466</v>
+      <c r="F1198" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1198" t="s">
         <v>1047</v>
@@ -48487,8 +48943,8 @@
       <c r="E1199" t="s">
         <v>1290</v>
       </c>
-      <c r="F1199" s="4">
-        <v>43466</v>
+      <c r="F1199" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="G1199" t="s">
         <v>1047</v>
@@ -48530,8 +48986,8 @@
       <c r="E1200" t="s">
         <v>1336</v>
       </c>
-      <c r="F1200" s="4">
-        <v>41913</v>
+      <c r="F1200" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G1200" t="s">
         <v>1048</v>
@@ -48570,8 +49026,8 @@
       <c r="E1201" t="s">
         <v>1337</v>
       </c>
-      <c r="F1201" s="4">
-        <v>45170</v>
+      <c r="F1201" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1201" t="s">
         <v>1048</v>
@@ -48610,8 +49066,8 @@
       <c r="E1202" t="s">
         <v>1211</v>
       </c>
-      <c r="F1202" s="4">
-        <v>42856</v>
+      <c r="F1202" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="G1202" t="s">
         <v>1047</v>
@@ -48650,8 +49106,8 @@
       <c r="E1203" t="s">
         <v>1257</v>
       </c>
-      <c r="F1203" s="4">
-        <v>45170</v>
+      <c r="F1203" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1203" t="s">
         <v>1048</v>
@@ -48693,8 +49149,8 @@
       <c r="E1204" t="s">
         <v>1271</v>
       </c>
-      <c r="F1204" s="4">
-        <v>42795</v>
+      <c r="F1204" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G1204" t="s">
         <v>1047</v>
@@ -48736,8 +49192,8 @@
       <c r="E1205" t="s">
         <v>1271</v>
       </c>
-      <c r="F1205" s="4">
-        <v>42795</v>
+      <c r="F1205" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G1205" t="s">
         <v>1047</v>
@@ -48779,8 +49235,8 @@
       <c r="E1206" t="s">
         <v>1271</v>
       </c>
-      <c r="F1206" s="4">
-        <v>42795</v>
+      <c r="F1206" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G1206" t="s">
         <v>1047</v>
@@ -48822,8 +49278,8 @@
       <c r="E1207" t="s">
         <v>1271</v>
       </c>
-      <c r="F1207" s="4">
-        <v>42795</v>
+      <c r="F1207" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="G1207" t="s">
         <v>1047</v>
@@ -48865,8 +49321,8 @@
       <c r="E1208" t="s">
         <v>1060</v>
       </c>
-      <c r="F1208" s="4">
-        <v>34578</v>
+      <c r="F1208" s="4" t="s">
+        <v>1359</v>
       </c>
       <c r="G1208" t="s">
         <v>1048</v>
@@ -48908,8 +49364,8 @@
       <c r="E1209" t="s">
         <v>1159</v>
       </c>
-      <c r="F1209" s="4">
-        <v>45231</v>
+      <c r="F1209" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G1209" t="s">
         <v>1049</v>
@@ -48951,8 +49407,8 @@
       <c r="E1210" t="s">
         <v>1338</v>
       </c>
-      <c r="F1210" s="4">
-        <v>42309</v>
+      <c r="F1210" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G1210" t="s">
         <v>1049</v>
@@ -48991,8 +49447,8 @@
       <c r="E1211" t="s">
         <v>1322</v>
       </c>
-      <c r="F1211" s="4">
-        <v>31898</v>
+      <c r="F1211" s="4" t="s">
+        <v>1498</v>
       </c>
       <c r="G1211" t="s">
         <v>1047</v>
@@ -49034,8 +49490,8 @@
       <c r="E1212" t="s">
         <v>1333</v>
       </c>
-      <c r="F1212" s="4">
-        <v>35065</v>
+      <c r="F1212" s="4" t="s">
+        <v>1500</v>
       </c>
       <c r="G1212" t="s">
         <v>1047</v>
@@ -49077,8 +49533,8 @@
       <c r="E1213" t="s">
         <v>1333</v>
       </c>
-      <c r="F1213" s="4">
-        <v>35065</v>
+      <c r="F1213" s="4" t="s">
+        <v>1500</v>
       </c>
       <c r="G1213" t="s">
         <v>1047</v>
@@ -49120,8 +49576,8 @@
       <c r="E1214" t="s">
         <v>1333</v>
       </c>
-      <c r="F1214" s="4">
-        <v>35065</v>
+      <c r="F1214" s="4" t="s">
+        <v>1500</v>
       </c>
       <c r="G1214" t="s">
         <v>1047</v>
@@ -49160,8 +49616,8 @@
       <c r="E1215" t="s">
         <v>1104</v>
       </c>
-      <c r="F1215" s="4">
-        <v>31291</v>
+      <c r="F1215" s="4" t="s">
+        <v>1396</v>
       </c>
       <c r="G1215" t="s">
         <v>1048</v>
@@ -49200,8 +49656,8 @@
       <c r="E1216" t="s">
         <v>1338</v>
       </c>
-      <c r="F1216" s="4">
-        <v>42309</v>
+      <c r="F1216" s="4" t="s">
+        <v>1451</v>
       </c>
       <c r="G1216" t="s">
         <v>1049</v>
@@ -49243,8 +49699,8 @@
       <c r="E1217" t="s">
         <v>1210</v>
       </c>
-      <c r="F1217" s="4">
-        <v>30103</v>
+      <c r="F1217" s="4" t="s">
+        <v>1457</v>
       </c>
       <c r="G1217" t="s">
         <v>1048</v>
@@ -49283,8 +49739,8 @@
       <c r="E1218" t="s">
         <v>1212</v>
       </c>
-      <c r="F1218" s="4">
-        <v>44958</v>
+      <c r="F1218" s="4" t="s">
+        <v>1364</v>
       </c>
       <c r="G1218" t="s">
         <v>1047</v>
@@ -49326,8 +49782,8 @@
       <c r="E1219" t="s">
         <v>1282</v>
       </c>
-      <c r="F1219" s="4">
-        <v>44166</v>
+      <c r="F1219" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1219" t="s">
         <v>1049</v>
@@ -49369,8 +49825,8 @@
       <c r="E1220" t="s">
         <v>1282</v>
       </c>
-      <c r="F1220" s="4">
-        <v>44166</v>
+      <c r="F1220" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1220" t="s">
         <v>1049</v>
@@ -49412,8 +49868,8 @@
       <c r="E1221" t="s">
         <v>1282</v>
       </c>
-      <c r="F1221" s="4">
-        <v>44166</v>
+      <c r="F1221" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="G1221" t="s">
         <v>1049</v>
@@ -49455,8 +49911,8 @@
       <c r="E1222" t="s">
         <v>1124</v>
       </c>
-      <c r="F1222" s="4">
-        <v>35582</v>
+      <c r="F1222" s="4" t="s">
+        <v>1407</v>
       </c>
       <c r="G1222" t="s">
         <v>1048</v>
@@ -49495,8 +49951,8 @@
       <c r="E1223" t="s">
         <v>1123</v>
       </c>
-      <c r="F1223" s="4">
-        <v>45200</v>
+      <c r="F1223" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="G1223" t="s">
         <v>1047</v>
@@ -49538,8 +49994,8 @@
       <c r="E1224" t="s">
         <v>1288</v>
       </c>
-      <c r="F1224" s="4">
-        <v>33939</v>
+      <c r="F1224" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="G1224" t="s">
         <v>1049</v>
@@ -49578,8 +50034,8 @@
       <c r="E1225" t="s">
         <v>1339</v>
       </c>
-      <c r="F1225" s="4">
-        <v>43891</v>
+      <c r="F1225" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="G1225" t="s">
         <v>1047</v>
@@ -49618,8 +50074,8 @@
       <c r="E1226" t="s">
         <v>1067</v>
       </c>
-      <c r="F1226" s="4">
-        <v>42339</v>
+      <c r="F1226" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="G1226" t="s">
         <v>1049</v>
@@ -49658,8 +50114,8 @@
       <c r="E1227" t="s">
         <v>1067</v>
       </c>
-      <c r="F1227" s="4">
-        <v>42339</v>
+      <c r="F1227" s="4" t="s">
+        <v>1366</v>
       </c>
       <c r="G1227" t="s">
         <v>1049</v>
@@ -49701,8 +50157,8 @@
       <c r="E1228" t="s">
         <v>1169</v>
       </c>
-      <c r="F1228" s="4">
-        <v>42370</v>
+      <c r="F1228" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="G1228" t="s">
         <v>1047</v>
@@ -49741,8 +50197,8 @@
       <c r="E1229" t="s">
         <v>1143</v>
       </c>
-      <c r="F1229" s="4">
-        <v>43556</v>
+      <c r="F1229" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1229" t="s">
         <v>1047</v>
@@ -49784,8 +50240,8 @@
       <c r="E1230" t="s">
         <v>1340</v>
       </c>
-      <c r="F1230" s="4">
-        <v>45261</v>
+      <c r="F1230" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1230" t="s">
         <v>1047</v>
@@ -49824,8 +50280,8 @@
       <c r="E1231" t="s">
         <v>1053</v>
       </c>
-      <c r="F1231" s="4">
-        <v>43617</v>
+      <c r="F1231" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="G1231" t="s">
         <v>1048</v>
@@ -49867,8 +50323,8 @@
       <c r="E1232" t="s">
         <v>1341</v>
       </c>
-      <c r="F1232" s="4">
-        <v>43374</v>
+      <c r="F1232" s="4" t="s">
+        <v>1501</v>
       </c>
       <c r="G1232" t="s">
         <v>1048</v>
@@ -49910,8 +50366,8 @@
       <c r="E1233" t="s">
         <v>1341</v>
       </c>
-      <c r="F1233" s="4">
-        <v>43374</v>
+      <c r="F1233" s="4" t="s">
+        <v>1501</v>
       </c>
       <c r="G1233" t="s">
         <v>1048</v>
@@ -49953,8 +50409,8 @@
       <c r="E1234" t="s">
         <v>1151</v>
       </c>
-      <c r="F1234" s="4">
-        <v>45261</v>
+      <c r="F1234" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G1234" t="s">
         <v>1047</v>
@@ -49993,8 +50449,8 @@
       <c r="E1235" t="s">
         <v>1195</v>
       </c>
-      <c r="F1235" s="4">
-        <v>45170</v>
+      <c r="F1235" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1235" t="s">
         <v>1047</v>
@@ -50036,8 +50492,8 @@
       <c r="E1236" t="s">
         <v>1201</v>
       </c>
-      <c r="F1236" s="4">
-        <v>42095</v>
+      <c r="F1236" s="4" t="s">
+        <v>1452</v>
       </c>
       <c r="G1236" t="s">
         <v>1047</v>
@@ -50079,8 +50535,8 @@
       <c r="E1237" t="s">
         <v>1190</v>
       </c>
-      <c r="F1237" s="4">
-        <v>30834</v>
+      <c r="F1237" s="4" t="s">
+        <v>1447</v>
       </c>
       <c r="G1237" t="s">
         <v>1048</v>
@@ -50119,8 +50575,8 @@
       <c r="E1238" t="s">
         <v>1103</v>
       </c>
-      <c r="F1238" s="4">
-        <v>36281</v>
+      <c r="F1238" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1238" t="s">
         <v>1047</v>
@@ -50159,8 +50615,8 @@
       <c r="E1239" t="s">
         <v>1103</v>
       </c>
-      <c r="F1239" s="4">
-        <v>36281</v>
+      <c r="F1239" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1239" t="s">
         <v>1047</v>
@@ -50199,8 +50655,8 @@
       <c r="E1240" t="s">
         <v>1103</v>
       </c>
-      <c r="F1240" s="4">
-        <v>36281</v>
+      <c r="F1240" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1240" t="s">
         <v>1047</v>
@@ -50239,8 +50695,8 @@
       <c r="E1241" t="s">
         <v>1103</v>
       </c>
-      <c r="F1241" s="4">
-        <v>36281</v>
+      <c r="F1241" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1241" t="s">
         <v>1047</v>
@@ -50279,8 +50735,8 @@
       <c r="E1242" t="s">
         <v>1103</v>
       </c>
-      <c r="F1242" s="4">
-        <v>36281</v>
+      <c r="F1242" s="4" t="s">
+        <v>1395</v>
       </c>
       <c r="G1242" t="s">
         <v>1047</v>
@@ -50319,8 +50775,8 @@
       <c r="E1243" t="s">
         <v>1225</v>
       </c>
-      <c r="F1243" s="4">
-        <v>45231</v>
+      <c r="F1243" s="4" t="s">
+        <v>1355</v>
       </c>
       <c r="G1243" t="s">
         <v>1047</v>
@@ -50362,8 +50818,8 @@
       <c r="E1244" t="s">
         <v>1240</v>
       </c>
-      <c r="F1244" s="4">
-        <v>44927</v>
+      <c r="F1244" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="G1244" t="s">
         <v>1047</v>
@@ -50402,8 +50858,8 @@
       <c r="E1245" t="s">
         <v>1342</v>
       </c>
-      <c r="F1245" s="4">
-        <v>32295</v>
+      <c r="F1245" s="4" t="s">
+        <v>1397</v>
       </c>
       <c r="G1245" t="s">
         <v>1048</v>
@@ -50445,8 +50901,8 @@
       <c r="E1246" t="s">
         <v>1343</v>
       </c>
-      <c r="F1246" s="4">
-        <v>42401</v>
+      <c r="F1246" s="4" t="s">
+        <v>1502</v>
       </c>
       <c r="G1246" t="s">
         <v>1047</v>
@@ -50485,8 +50941,8 @@
       <c r="E1247" t="s">
         <v>1336</v>
       </c>
-      <c r="F1247" s="4">
-        <v>41913</v>
+      <c r="F1247" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G1247" t="s">
         <v>1048</v>
@@ -50525,8 +50981,8 @@
       <c r="E1248" t="s">
         <v>1336</v>
       </c>
-      <c r="F1248" s="4">
-        <v>41913</v>
+      <c r="F1248" s="4" t="s">
+        <v>1400</v>
       </c>
       <c r="G1248" t="s">
         <v>1048</v>
@@ -50568,8 +51024,8 @@
       <c r="E1249" t="s">
         <v>1343</v>
       </c>
-      <c r="F1249" s="4">
-        <v>42401</v>
+      <c r="F1249" s="4" t="s">
+        <v>1502</v>
       </c>
       <c r="G1249" t="s">
         <v>1047</v>
@@ -50611,8 +51067,8 @@
       <c r="E1250" t="s">
         <v>1073</v>
       </c>
-      <c r="F1250" s="4">
-        <v>45047</v>
+      <c r="F1250" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1250" t="s">
         <v>1047</v>
@@ -50654,8 +51110,8 @@
       <c r="E1251" t="s">
         <v>1143</v>
       </c>
-      <c r="F1251" s="4">
-        <v>43556</v>
+      <c r="F1251" s="4" t="s">
+        <v>1423</v>
       </c>
       <c r="G1251" t="s">
         <v>1047</v>
@@ -50694,8 +51150,8 @@
       <c r="E1252" t="s">
         <v>1135</v>
       </c>
-      <c r="F1252" s="4">
-        <v>27668</v>
+      <c r="F1252" s="4" t="s">
+        <v>1417</v>
       </c>
       <c r="G1252" t="s">
         <v>1048</v>
@@ -50737,8 +51193,8 @@
       <c r="E1253" t="s">
         <v>1055</v>
       </c>
-      <c r="F1253" s="4">
-        <v>43009</v>
+      <c r="F1253" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1253" t="s">
         <v>1048</v>
@@ -50780,8 +51236,8 @@
       <c r="E1254" t="s">
         <v>1055</v>
       </c>
-      <c r="F1254" s="4">
-        <v>43009</v>
+      <c r="F1254" s="4" t="s">
+        <v>1354</v>
       </c>
       <c r="G1254" t="s">
         <v>1048</v>
@@ -50823,8 +51279,8 @@
       <c r="E1255" t="s">
         <v>1213</v>
       </c>
-      <c r="F1255" s="4">
-        <v>44228</v>
+      <c r="F1255" s="4" t="s">
+        <v>1459</v>
       </c>
       <c r="G1255" t="s">
         <v>1047</v>
@@ -50866,8 +51322,8 @@
       <c r="E1256" t="s">
         <v>1247</v>
       </c>
-      <c r="F1256" s="4">
-        <v>41395</v>
+      <c r="F1256" s="4" t="s">
+        <v>1469</v>
       </c>
       <c r="G1256" t="s">
         <v>1047</v>
@@ -50906,8 +51362,8 @@
       <c r="E1257" t="s">
         <v>1183</v>
       </c>
-      <c r="F1257" s="4">
-        <v>45170</v>
+      <c r="F1257" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="G1257" t="s">
         <v>1048</v>
@@ -50949,8 +51405,8 @@
       <c r="E1258" t="s">
         <v>1344</v>
       </c>
-      <c r="F1258" s="4">
-        <v>45047</v>
+      <c r="F1258" s="4" t="s">
+        <v>1370</v>
       </c>
       <c r="G1258" t="s">
         <v>1047</v>
@@ -50989,8 +51445,8 @@
       <c r="E1259" t="s">
         <v>1345</v>
       </c>
-      <c r="F1259" s="4">
-        <v>44986</v>
+      <c r="F1259" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G1259" t="s">
         <v>1048</v>
@@ -51029,8 +51485,8 @@
       <c r="E1260" t="s">
         <v>1345</v>
       </c>
-      <c r="F1260" s="4">
-        <v>44986</v>
+      <c r="F1260" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G1260" t="s">
         <v>1048</v>
@@ -51069,8 +51525,8 @@
       <c r="E1261" t="s">
         <v>1345</v>
       </c>
-      <c r="F1261" s="4">
-        <v>44986</v>
+      <c r="F1261" s="4" t="s">
+        <v>1424</v>
       </c>
       <c r="G1261" t="s">
         <v>1048</v>
@@ -51109,8 +51565,8 @@
       <c r="E1262" t="s">
         <v>1059</v>
       </c>
-      <c r="F1262" s="4">
-        <v>32964</v>
+      <c r="F1262" s="4" t="s">
+        <v>1358</v>
       </c>
       <c r="G1262" t="s">
         <v>1047</v>
@@ -51152,8 +51608,8 @@
       <c r="E1263" t="s">
         <v>1346</v>
       </c>
-      <c r="F1263" s="4">
-        <v>44013</v>
+      <c r="F1263" s="4" t="s">
+        <v>1413</v>
       </c>
       <c r="G1263" t="s">
         <v>1048</v>

--- a/Roadshow/Tag 2/_Testdatengenerator_RS2.xlsx
+++ b/Roadshow/Tag 2/_Testdatengenerator_RS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://m2datade-my.sharepoint.com/personal/michael_m2data_de/Documents/Dokumente/GitHub/Willibald-Data/Roadshow/Tag 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="8_{651BA3F1-E220-4D83-AC4D-C50AF32EE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2A11BA-83F7-467E-A818-E64A182E4475}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{651BA3F1-E220-4D83-AC4D-C50AF32EE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391D95A7-8FCB-4CBE-843F-EB7B2B92A670}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="1236" windowWidth="32220" windowHeight="22884" xr2:uid="{A4E0496F-7324-4B6A-8D8A-BAA11DC38CD8}"/>
+    <workbookView xWindow="3696" yWindow="48" windowWidth="28776" windowHeight="24708" xr2:uid="{A4E0496F-7324-4B6A-8D8A-BAA11DC38CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="1503">
   <si>
     <t>BestellungID</t>
   </si>
@@ -4583,12 +4583,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4905,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42710005-8F53-432E-93B4-A4A73C28AA15}">
   <dimension ref="A1:N1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1201" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K1263"/>
+    <sheetView tabSelected="1" topLeftCell="L859" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153:F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9749,8 +9750,8 @@
       <c r="E153" t="s">
         <v>1191</v>
       </c>
-      <c r="F153" s="4">
-        <v>45200</v>
+      <c r="F153" s="5" t="s">
+        <v>1363</v>
       </c>
       <c r="G153" t="s">
         <v>1048</v>
@@ -9792,8 +9793,8 @@
       <c r="E154" t="s">
         <v>1191</v>
       </c>
-      <c r="F154" s="4">
-        <v>45200</v>
+      <c r="F154" s="5" t="s">
+        <v>1363</v>
       </c>
       <c r="G154" t="s">
         <v>1048</v>
